--- a/service-system/src/main/resources/static/路基弯沉(落锤法).xlsx
+++ b/service-system/src/main/resources/static/路基弯沉(落锤法).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F8B4FF-361B-446E-B308-F98832563E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE8A6C0-A59D-466C-AE89-0D3FBFFF44F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="评定单元" sheetId="9" r:id="rId1"/>
@@ -2841,9 +2841,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2881,9 +2881,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2916,26 +2916,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2968,26 +2951,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3166,22 +3132,22 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:I28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="6.59765625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.59765625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.59765625" style="6" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="8.59765625" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="6.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.625" style="6" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="8.625" style="2" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="8" style="2" customWidth="1" collapsed="1"/>
     <col min="11" max="16384" width="9" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
         <v>15</v>
       </c>
@@ -3194,7 +3160,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="48" t="s">
         <v>17</v>
       </c>
@@ -3208,7 +3174,7 @@
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="50" t="s">
         <v>16</v>
       </c>
@@ -3222,7 +3188,7 @@
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
     </row>
-    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="45" t="s">
         <v>4</v>
       </c>
@@ -3243,7 +3209,7 @@
       </c>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -3258,7 +3224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17"/>
       <c r="B6" s="52"/>
       <c r="C6" s="53"/>
@@ -3269,7 +3235,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17"/>
       <c r="B7" s="52"/>
       <c r="C7" s="53"/>
@@ -3280,7 +3246,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17"/>
       <c r="B8" s="52"/>
       <c r="C8" s="53"/>
@@ -3291,7 +3257,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
       <c r="B9" s="52"/>
       <c r="C9" s="53"/>
@@ -3302,7 +3268,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
       <c r="B10" s="52"/>
       <c r="C10" s="53"/>
@@ -3313,7 +3279,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
       <c r="B11" s="52"/>
       <c r="C11" s="53"/>
@@ -3324,7 +3290,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="52"/>
       <c r="C12" s="53"/>
@@ -3335,7 +3301,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
       <c r="B13" s="52"/>
       <c r="C13" s="53"/>
@@ -3346,7 +3312,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
       <c r="B14" s="52"/>
       <c r="C14" s="53"/>
@@ -3357,7 +3323,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
       <c r="B15" s="52"/>
       <c r="C15" s="53"/>
@@ -3368,7 +3334,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
@@ -3379,7 +3345,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -3390,7 +3356,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
@@ -3401,7 +3367,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
@@ -3412,7 +3378,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
@@ -3423,7 +3389,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
@@ -3434,7 +3400,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
@@ -3445,7 +3411,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -3456,7 +3422,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
@@ -3467,7 +3433,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -3478,7 +3444,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
@@ -3489,7 +3455,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
@@ -3500,7 +3466,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
@@ -3538,13 +3504,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.86614173228346458" right="0.59055118110236227" top="0.78740157480314965" bottom="0.82677165354330717" header="0.35433070866141736" footer="0.59055118110236227"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C
-陕西交建公路工程试验检测有限公司&amp;R
-第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter xml:space="preserve">&amp;L        检测：&amp;R复核：                    </oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -3553,722 +3516,722 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAA9E17-FF74-4BE8-A7FB-7E482F719D07}">
   <dimension ref="A1:XDF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" style="22" customWidth="1"/>
-    <col min="2" max="2" width="9.265625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="6.59765625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" style="22" customWidth="1"/>
-    <col min="5" max="9" width="6.59765625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="12.59765625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="22" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="22" customWidth="1"/>
+    <col min="5" max="9" width="6.625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="22" customWidth="1"/>
     <col min="12" max="12" width="9" style="19"/>
-    <col min="13" max="13" width="12.46484375" style="19" customWidth="1"/>
-    <col min="14" max="14" width="11.46484375" style="21" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="19" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="21" customWidth="1"/>
     <col min="15" max="15" width="9" style="19"/>
-    <col min="16" max="17" width="10.59765625" style="20" customWidth="1"/>
+    <col min="16" max="17" width="10.625" style="20" customWidth="1"/>
     <col min="18" max="201" width="9" style="19"/>
-    <col min="202" max="202" width="9.1328125" style="19" customWidth="1"/>
-    <col min="203" max="203" width="5.46484375" style="19" customWidth="1"/>
-    <col min="204" max="207" width="6.265625" style="19" customWidth="1"/>
-    <col min="208" max="208" width="5.46484375" style="19" customWidth="1"/>
-    <col min="209" max="209" width="9.265625" style="19" customWidth="1"/>
-    <col min="210" max="210" width="5.46484375" style="19" customWidth="1"/>
-    <col min="211" max="214" width="6.265625" style="19" customWidth="1"/>
-    <col min="215" max="215" width="5.46484375" style="19" customWidth="1"/>
+    <col min="202" max="202" width="9.125" style="19" customWidth="1"/>
+    <col min="203" max="203" width="5.5" style="19" customWidth="1"/>
+    <col min="204" max="207" width="6.25" style="19" customWidth="1"/>
+    <col min="208" max="208" width="5.5" style="19" customWidth="1"/>
+    <col min="209" max="209" width="9.25" style="19" customWidth="1"/>
+    <col min="210" max="210" width="5.5" style="19" customWidth="1"/>
+    <col min="211" max="214" width="6.25" style="19" customWidth="1"/>
+    <col min="215" max="215" width="5.5" style="19" customWidth="1"/>
     <col min="216" max="216" width="9" style="19"/>
-    <col min="217" max="217" width="13.86328125" style="19" customWidth="1"/>
+    <col min="217" max="217" width="13.875" style="19" customWidth="1"/>
     <col min="218" max="457" width="9" style="19"/>
-    <col min="458" max="458" width="9.1328125" style="19" customWidth="1"/>
-    <col min="459" max="459" width="5.46484375" style="19" customWidth="1"/>
-    <col min="460" max="463" width="6.265625" style="19" customWidth="1"/>
-    <col min="464" max="464" width="5.46484375" style="19" customWidth="1"/>
-    <col min="465" max="465" width="9.265625" style="19" customWidth="1"/>
-    <col min="466" max="466" width="5.46484375" style="19" customWidth="1"/>
-    <col min="467" max="470" width="6.265625" style="19" customWidth="1"/>
-    <col min="471" max="471" width="5.46484375" style="19" customWidth="1"/>
+    <col min="458" max="458" width="9.125" style="19" customWidth="1"/>
+    <col min="459" max="459" width="5.5" style="19" customWidth="1"/>
+    <col min="460" max="463" width="6.25" style="19" customWidth="1"/>
+    <col min="464" max="464" width="5.5" style="19" customWidth="1"/>
+    <col min="465" max="465" width="9.25" style="19" customWidth="1"/>
+    <col min="466" max="466" width="5.5" style="19" customWidth="1"/>
+    <col min="467" max="470" width="6.25" style="19" customWidth="1"/>
+    <col min="471" max="471" width="5.5" style="19" customWidth="1"/>
     <col min="472" max="472" width="9" style="19"/>
-    <col min="473" max="473" width="13.86328125" style="19" customWidth="1"/>
+    <col min="473" max="473" width="13.875" style="19" customWidth="1"/>
     <col min="474" max="713" width="9" style="19"/>
-    <col min="714" max="714" width="9.1328125" style="19" customWidth="1"/>
-    <col min="715" max="715" width="5.46484375" style="19" customWidth="1"/>
-    <col min="716" max="719" width="6.265625" style="19" customWidth="1"/>
-    <col min="720" max="720" width="5.46484375" style="19" customWidth="1"/>
-    <col min="721" max="721" width="9.265625" style="19" customWidth="1"/>
-    <col min="722" max="722" width="5.46484375" style="19" customWidth="1"/>
-    <col min="723" max="726" width="6.265625" style="19" customWidth="1"/>
-    <col min="727" max="727" width="5.46484375" style="19" customWidth="1"/>
+    <col min="714" max="714" width="9.125" style="19" customWidth="1"/>
+    <col min="715" max="715" width="5.5" style="19" customWidth="1"/>
+    <col min="716" max="719" width="6.25" style="19" customWidth="1"/>
+    <col min="720" max="720" width="5.5" style="19" customWidth="1"/>
+    <col min="721" max="721" width="9.25" style="19" customWidth="1"/>
+    <col min="722" max="722" width="5.5" style="19" customWidth="1"/>
+    <col min="723" max="726" width="6.25" style="19" customWidth="1"/>
+    <col min="727" max="727" width="5.5" style="19" customWidth="1"/>
     <col min="728" max="728" width="9" style="19"/>
-    <col min="729" max="729" width="13.86328125" style="19" customWidth="1"/>
+    <col min="729" max="729" width="13.875" style="19" customWidth="1"/>
     <col min="730" max="969" width="9" style="19"/>
-    <col min="970" max="970" width="9.1328125" style="19" customWidth="1"/>
-    <col min="971" max="971" width="5.46484375" style="19" customWidth="1"/>
-    <col min="972" max="975" width="6.265625" style="19" customWidth="1"/>
-    <col min="976" max="976" width="5.46484375" style="19" customWidth="1"/>
-    <col min="977" max="977" width="9.265625" style="19" customWidth="1"/>
-    <col min="978" max="978" width="5.46484375" style="19" customWidth="1"/>
-    <col min="979" max="982" width="6.265625" style="19" customWidth="1"/>
-    <col min="983" max="983" width="5.46484375" style="19" customWidth="1"/>
+    <col min="970" max="970" width="9.125" style="19" customWidth="1"/>
+    <col min="971" max="971" width="5.5" style="19" customWidth="1"/>
+    <col min="972" max="975" width="6.25" style="19" customWidth="1"/>
+    <col min="976" max="976" width="5.5" style="19" customWidth="1"/>
+    <col min="977" max="977" width="9.25" style="19" customWidth="1"/>
+    <col min="978" max="978" width="5.5" style="19" customWidth="1"/>
+    <col min="979" max="982" width="6.25" style="19" customWidth="1"/>
+    <col min="983" max="983" width="5.5" style="19" customWidth="1"/>
     <col min="984" max="984" width="9" style="19"/>
-    <col min="985" max="985" width="13.86328125" style="19" customWidth="1"/>
+    <col min="985" max="985" width="13.875" style="19" customWidth="1"/>
     <col min="986" max="1225" width="9" style="19"/>
-    <col min="1226" max="1226" width="9.1328125" style="19" customWidth="1"/>
-    <col min="1227" max="1227" width="5.46484375" style="19" customWidth="1"/>
-    <col min="1228" max="1231" width="6.265625" style="19" customWidth="1"/>
-    <col min="1232" max="1232" width="5.46484375" style="19" customWidth="1"/>
-    <col min="1233" max="1233" width="9.265625" style="19" customWidth="1"/>
-    <col min="1234" max="1234" width="5.46484375" style="19" customWidth="1"/>
-    <col min="1235" max="1238" width="6.265625" style="19" customWidth="1"/>
-    <col min="1239" max="1239" width="5.46484375" style="19" customWidth="1"/>
+    <col min="1226" max="1226" width="9.125" style="19" customWidth="1"/>
+    <col min="1227" max="1227" width="5.5" style="19" customWidth="1"/>
+    <col min="1228" max="1231" width="6.25" style="19" customWidth="1"/>
+    <col min="1232" max="1232" width="5.5" style="19" customWidth="1"/>
+    <col min="1233" max="1233" width="9.25" style="19" customWidth="1"/>
+    <col min="1234" max="1234" width="5.5" style="19" customWidth="1"/>
+    <col min="1235" max="1238" width="6.25" style="19" customWidth="1"/>
+    <col min="1239" max="1239" width="5.5" style="19" customWidth="1"/>
     <col min="1240" max="1240" width="9" style="19"/>
-    <col min="1241" max="1241" width="13.86328125" style="19" customWidth="1"/>
+    <col min="1241" max="1241" width="13.875" style="19" customWidth="1"/>
     <col min="1242" max="1481" width="9" style="19"/>
-    <col min="1482" max="1482" width="9.1328125" style="19" customWidth="1"/>
-    <col min="1483" max="1483" width="5.46484375" style="19" customWidth="1"/>
-    <col min="1484" max="1487" width="6.265625" style="19" customWidth="1"/>
-    <col min="1488" max="1488" width="5.46484375" style="19" customWidth="1"/>
-    <col min="1489" max="1489" width="9.265625" style="19" customWidth="1"/>
-    <col min="1490" max="1490" width="5.46484375" style="19" customWidth="1"/>
-    <col min="1491" max="1494" width="6.265625" style="19" customWidth="1"/>
-    <col min="1495" max="1495" width="5.46484375" style="19" customWidth="1"/>
+    <col min="1482" max="1482" width="9.125" style="19" customWidth="1"/>
+    <col min="1483" max="1483" width="5.5" style="19" customWidth="1"/>
+    <col min="1484" max="1487" width="6.25" style="19" customWidth="1"/>
+    <col min="1488" max="1488" width="5.5" style="19" customWidth="1"/>
+    <col min="1489" max="1489" width="9.25" style="19" customWidth="1"/>
+    <col min="1490" max="1490" width="5.5" style="19" customWidth="1"/>
+    <col min="1491" max="1494" width="6.25" style="19" customWidth="1"/>
+    <col min="1495" max="1495" width="5.5" style="19" customWidth="1"/>
     <col min="1496" max="1496" width="9" style="19"/>
-    <col min="1497" max="1497" width="13.86328125" style="19" customWidth="1"/>
+    <col min="1497" max="1497" width="13.875" style="19" customWidth="1"/>
     <col min="1498" max="1737" width="9" style="19"/>
-    <col min="1738" max="1738" width="9.1328125" style="19" customWidth="1"/>
-    <col min="1739" max="1739" width="5.46484375" style="19" customWidth="1"/>
-    <col min="1740" max="1743" width="6.265625" style="19" customWidth="1"/>
-    <col min="1744" max="1744" width="5.46484375" style="19" customWidth="1"/>
-    <col min="1745" max="1745" width="9.265625" style="19" customWidth="1"/>
-    <col min="1746" max="1746" width="5.46484375" style="19" customWidth="1"/>
-    <col min="1747" max="1750" width="6.265625" style="19" customWidth="1"/>
-    <col min="1751" max="1751" width="5.46484375" style="19" customWidth="1"/>
+    <col min="1738" max="1738" width="9.125" style="19" customWidth="1"/>
+    <col min="1739" max="1739" width="5.5" style="19" customWidth="1"/>
+    <col min="1740" max="1743" width="6.25" style="19" customWidth="1"/>
+    <col min="1744" max="1744" width="5.5" style="19" customWidth="1"/>
+    <col min="1745" max="1745" width="9.25" style="19" customWidth="1"/>
+    <col min="1746" max="1746" width="5.5" style="19" customWidth="1"/>
+    <col min="1747" max="1750" width="6.25" style="19" customWidth="1"/>
+    <col min="1751" max="1751" width="5.5" style="19" customWidth="1"/>
     <col min="1752" max="1752" width="9" style="19"/>
-    <col min="1753" max="1753" width="13.86328125" style="19" customWidth="1"/>
+    <col min="1753" max="1753" width="13.875" style="19" customWidth="1"/>
     <col min="1754" max="1993" width="9" style="19"/>
-    <col min="1994" max="1994" width="9.1328125" style="19" customWidth="1"/>
-    <col min="1995" max="1995" width="5.46484375" style="19" customWidth="1"/>
-    <col min="1996" max="1999" width="6.265625" style="19" customWidth="1"/>
-    <col min="2000" max="2000" width="5.46484375" style="19" customWidth="1"/>
-    <col min="2001" max="2001" width="9.265625" style="19" customWidth="1"/>
-    <col min="2002" max="2002" width="5.46484375" style="19" customWidth="1"/>
-    <col min="2003" max="2006" width="6.265625" style="19" customWidth="1"/>
-    <col min="2007" max="2007" width="5.46484375" style="19" customWidth="1"/>
+    <col min="1994" max="1994" width="9.125" style="19" customWidth="1"/>
+    <col min="1995" max="1995" width="5.5" style="19" customWidth="1"/>
+    <col min="1996" max="1999" width="6.25" style="19" customWidth="1"/>
+    <col min="2000" max="2000" width="5.5" style="19" customWidth="1"/>
+    <col min="2001" max="2001" width="9.25" style="19" customWidth="1"/>
+    <col min="2002" max="2002" width="5.5" style="19" customWidth="1"/>
+    <col min="2003" max="2006" width="6.25" style="19" customWidth="1"/>
+    <col min="2007" max="2007" width="5.5" style="19" customWidth="1"/>
     <col min="2008" max="2008" width="9" style="19"/>
-    <col min="2009" max="2009" width="13.86328125" style="19" customWidth="1"/>
+    <col min="2009" max="2009" width="13.875" style="19" customWidth="1"/>
     <col min="2010" max="2249" width="9" style="19"/>
-    <col min="2250" max="2250" width="9.1328125" style="19" customWidth="1"/>
-    <col min="2251" max="2251" width="5.46484375" style="19" customWidth="1"/>
-    <col min="2252" max="2255" width="6.265625" style="19" customWidth="1"/>
-    <col min="2256" max="2256" width="5.46484375" style="19" customWidth="1"/>
-    <col min="2257" max="2257" width="9.265625" style="19" customWidth="1"/>
-    <col min="2258" max="2258" width="5.46484375" style="19" customWidth="1"/>
-    <col min="2259" max="2262" width="6.265625" style="19" customWidth="1"/>
-    <col min="2263" max="2263" width="5.46484375" style="19" customWidth="1"/>
+    <col min="2250" max="2250" width="9.125" style="19" customWidth="1"/>
+    <col min="2251" max="2251" width="5.5" style="19" customWidth="1"/>
+    <col min="2252" max="2255" width="6.25" style="19" customWidth="1"/>
+    <col min="2256" max="2256" width="5.5" style="19" customWidth="1"/>
+    <col min="2257" max="2257" width="9.25" style="19" customWidth="1"/>
+    <col min="2258" max="2258" width="5.5" style="19" customWidth="1"/>
+    <col min="2259" max="2262" width="6.25" style="19" customWidth="1"/>
+    <col min="2263" max="2263" width="5.5" style="19" customWidth="1"/>
     <col min="2264" max="2264" width="9" style="19"/>
-    <col min="2265" max="2265" width="13.86328125" style="19" customWidth="1"/>
+    <col min="2265" max="2265" width="13.875" style="19" customWidth="1"/>
     <col min="2266" max="2505" width="9" style="19"/>
-    <col min="2506" max="2506" width="9.1328125" style="19" customWidth="1"/>
-    <col min="2507" max="2507" width="5.46484375" style="19" customWidth="1"/>
-    <col min="2508" max="2511" width="6.265625" style="19" customWidth="1"/>
-    <col min="2512" max="2512" width="5.46484375" style="19" customWidth="1"/>
-    <col min="2513" max="2513" width="9.265625" style="19" customWidth="1"/>
-    <col min="2514" max="2514" width="5.46484375" style="19" customWidth="1"/>
-    <col min="2515" max="2518" width="6.265625" style="19" customWidth="1"/>
-    <col min="2519" max="2519" width="5.46484375" style="19" customWidth="1"/>
+    <col min="2506" max="2506" width="9.125" style="19" customWidth="1"/>
+    <col min="2507" max="2507" width="5.5" style="19" customWidth="1"/>
+    <col min="2508" max="2511" width="6.25" style="19" customWidth="1"/>
+    <col min="2512" max="2512" width="5.5" style="19" customWidth="1"/>
+    <col min="2513" max="2513" width="9.25" style="19" customWidth="1"/>
+    <col min="2514" max="2514" width="5.5" style="19" customWidth="1"/>
+    <col min="2515" max="2518" width="6.25" style="19" customWidth="1"/>
+    <col min="2519" max="2519" width="5.5" style="19" customWidth="1"/>
     <col min="2520" max="2520" width="9" style="19"/>
-    <col min="2521" max="2521" width="13.86328125" style="19" customWidth="1"/>
+    <col min="2521" max="2521" width="13.875" style="19" customWidth="1"/>
     <col min="2522" max="2761" width="9" style="19"/>
-    <col min="2762" max="2762" width="9.1328125" style="19" customWidth="1"/>
-    <col min="2763" max="2763" width="5.46484375" style="19" customWidth="1"/>
-    <col min="2764" max="2767" width="6.265625" style="19" customWidth="1"/>
-    <col min="2768" max="2768" width="5.46484375" style="19" customWidth="1"/>
-    <col min="2769" max="2769" width="9.265625" style="19" customWidth="1"/>
-    <col min="2770" max="2770" width="5.46484375" style="19" customWidth="1"/>
-    <col min="2771" max="2774" width="6.265625" style="19" customWidth="1"/>
-    <col min="2775" max="2775" width="5.46484375" style="19" customWidth="1"/>
+    <col min="2762" max="2762" width="9.125" style="19" customWidth="1"/>
+    <col min="2763" max="2763" width="5.5" style="19" customWidth="1"/>
+    <col min="2764" max="2767" width="6.25" style="19" customWidth="1"/>
+    <col min="2768" max="2768" width="5.5" style="19" customWidth="1"/>
+    <col min="2769" max="2769" width="9.25" style="19" customWidth="1"/>
+    <col min="2770" max="2770" width="5.5" style="19" customWidth="1"/>
+    <col min="2771" max="2774" width="6.25" style="19" customWidth="1"/>
+    <col min="2775" max="2775" width="5.5" style="19" customWidth="1"/>
     <col min="2776" max="2776" width="9" style="19"/>
-    <col min="2777" max="2777" width="13.86328125" style="19" customWidth="1"/>
+    <col min="2777" max="2777" width="13.875" style="19" customWidth="1"/>
     <col min="2778" max="3017" width="9" style="19"/>
-    <col min="3018" max="3018" width="9.1328125" style="19" customWidth="1"/>
-    <col min="3019" max="3019" width="5.46484375" style="19" customWidth="1"/>
-    <col min="3020" max="3023" width="6.265625" style="19" customWidth="1"/>
-    <col min="3024" max="3024" width="5.46484375" style="19" customWidth="1"/>
-    <col min="3025" max="3025" width="9.265625" style="19" customWidth="1"/>
-    <col min="3026" max="3026" width="5.46484375" style="19" customWidth="1"/>
-    <col min="3027" max="3030" width="6.265625" style="19" customWidth="1"/>
-    <col min="3031" max="3031" width="5.46484375" style="19" customWidth="1"/>
+    <col min="3018" max="3018" width="9.125" style="19" customWidth="1"/>
+    <col min="3019" max="3019" width="5.5" style="19" customWidth="1"/>
+    <col min="3020" max="3023" width="6.25" style="19" customWidth="1"/>
+    <col min="3024" max="3024" width="5.5" style="19" customWidth="1"/>
+    <col min="3025" max="3025" width="9.25" style="19" customWidth="1"/>
+    <col min="3026" max="3026" width="5.5" style="19" customWidth="1"/>
+    <col min="3027" max="3030" width="6.25" style="19" customWidth="1"/>
+    <col min="3031" max="3031" width="5.5" style="19" customWidth="1"/>
     <col min="3032" max="3032" width="9" style="19"/>
-    <col min="3033" max="3033" width="13.86328125" style="19" customWidth="1"/>
+    <col min="3033" max="3033" width="13.875" style="19" customWidth="1"/>
     <col min="3034" max="3273" width="9" style="19"/>
-    <col min="3274" max="3274" width="9.1328125" style="19" customWidth="1"/>
-    <col min="3275" max="3275" width="5.46484375" style="19" customWidth="1"/>
-    <col min="3276" max="3279" width="6.265625" style="19" customWidth="1"/>
-    <col min="3280" max="3280" width="5.46484375" style="19" customWidth="1"/>
-    <col min="3281" max="3281" width="9.265625" style="19" customWidth="1"/>
-    <col min="3282" max="3282" width="5.46484375" style="19" customWidth="1"/>
-    <col min="3283" max="3286" width="6.265625" style="19" customWidth="1"/>
-    <col min="3287" max="3287" width="5.46484375" style="19" customWidth="1"/>
+    <col min="3274" max="3274" width="9.125" style="19" customWidth="1"/>
+    <col min="3275" max="3275" width="5.5" style="19" customWidth="1"/>
+    <col min="3276" max="3279" width="6.25" style="19" customWidth="1"/>
+    <col min="3280" max="3280" width="5.5" style="19" customWidth="1"/>
+    <col min="3281" max="3281" width="9.25" style="19" customWidth="1"/>
+    <col min="3282" max="3282" width="5.5" style="19" customWidth="1"/>
+    <col min="3283" max="3286" width="6.25" style="19" customWidth="1"/>
+    <col min="3287" max="3287" width="5.5" style="19" customWidth="1"/>
     <col min="3288" max="3288" width="9" style="19"/>
-    <col min="3289" max="3289" width="13.86328125" style="19" customWidth="1"/>
+    <col min="3289" max="3289" width="13.875" style="19" customWidth="1"/>
     <col min="3290" max="3529" width="9" style="19"/>
-    <col min="3530" max="3530" width="9.1328125" style="19" customWidth="1"/>
-    <col min="3531" max="3531" width="5.46484375" style="19" customWidth="1"/>
-    <col min="3532" max="3535" width="6.265625" style="19" customWidth="1"/>
-    <col min="3536" max="3536" width="5.46484375" style="19" customWidth="1"/>
-    <col min="3537" max="3537" width="9.265625" style="19" customWidth="1"/>
-    <col min="3538" max="3538" width="5.46484375" style="19" customWidth="1"/>
-    <col min="3539" max="3542" width="6.265625" style="19" customWidth="1"/>
-    <col min="3543" max="3543" width="5.46484375" style="19" customWidth="1"/>
+    <col min="3530" max="3530" width="9.125" style="19" customWidth="1"/>
+    <col min="3531" max="3531" width="5.5" style="19" customWidth="1"/>
+    <col min="3532" max="3535" width="6.25" style="19" customWidth="1"/>
+    <col min="3536" max="3536" width="5.5" style="19" customWidth="1"/>
+    <col min="3537" max="3537" width="9.25" style="19" customWidth="1"/>
+    <col min="3538" max="3538" width="5.5" style="19" customWidth="1"/>
+    <col min="3539" max="3542" width="6.25" style="19" customWidth="1"/>
+    <col min="3543" max="3543" width="5.5" style="19" customWidth="1"/>
     <col min="3544" max="3544" width="9" style="19"/>
-    <col min="3545" max="3545" width="13.86328125" style="19" customWidth="1"/>
+    <col min="3545" max="3545" width="13.875" style="19" customWidth="1"/>
     <col min="3546" max="3785" width="9" style="19"/>
-    <col min="3786" max="3786" width="9.1328125" style="19" customWidth="1"/>
-    <col min="3787" max="3787" width="5.46484375" style="19" customWidth="1"/>
-    <col min="3788" max="3791" width="6.265625" style="19" customWidth="1"/>
-    <col min="3792" max="3792" width="5.46484375" style="19" customWidth="1"/>
-    <col min="3793" max="3793" width="9.265625" style="19" customWidth="1"/>
-    <col min="3794" max="3794" width="5.46484375" style="19" customWidth="1"/>
-    <col min="3795" max="3798" width="6.265625" style="19" customWidth="1"/>
-    <col min="3799" max="3799" width="5.46484375" style="19" customWidth="1"/>
+    <col min="3786" max="3786" width="9.125" style="19" customWidth="1"/>
+    <col min="3787" max="3787" width="5.5" style="19" customWidth="1"/>
+    <col min="3788" max="3791" width="6.25" style="19" customWidth="1"/>
+    <col min="3792" max="3792" width="5.5" style="19" customWidth="1"/>
+    <col min="3793" max="3793" width="9.25" style="19" customWidth="1"/>
+    <col min="3794" max="3794" width="5.5" style="19" customWidth="1"/>
+    <col min="3795" max="3798" width="6.25" style="19" customWidth="1"/>
+    <col min="3799" max="3799" width="5.5" style="19" customWidth="1"/>
     <col min="3800" max="3800" width="9" style="19"/>
-    <col min="3801" max="3801" width="13.86328125" style="19" customWidth="1"/>
+    <col min="3801" max="3801" width="13.875" style="19" customWidth="1"/>
     <col min="3802" max="4041" width="9" style="19"/>
-    <col min="4042" max="4042" width="9.1328125" style="19" customWidth="1"/>
-    <col min="4043" max="4043" width="5.46484375" style="19" customWidth="1"/>
-    <col min="4044" max="4047" width="6.265625" style="19" customWidth="1"/>
-    <col min="4048" max="4048" width="5.46484375" style="19" customWidth="1"/>
-    <col min="4049" max="4049" width="9.265625" style="19" customWidth="1"/>
-    <col min="4050" max="4050" width="5.46484375" style="19" customWidth="1"/>
-    <col min="4051" max="4054" width="6.265625" style="19" customWidth="1"/>
-    <col min="4055" max="4055" width="5.46484375" style="19" customWidth="1"/>
+    <col min="4042" max="4042" width="9.125" style="19" customWidth="1"/>
+    <col min="4043" max="4043" width="5.5" style="19" customWidth="1"/>
+    <col min="4044" max="4047" width="6.25" style="19" customWidth="1"/>
+    <col min="4048" max="4048" width="5.5" style="19" customWidth="1"/>
+    <col min="4049" max="4049" width="9.25" style="19" customWidth="1"/>
+    <col min="4050" max="4050" width="5.5" style="19" customWidth="1"/>
+    <col min="4051" max="4054" width="6.25" style="19" customWidth="1"/>
+    <col min="4055" max="4055" width="5.5" style="19" customWidth="1"/>
     <col min="4056" max="4056" width="9" style="19"/>
-    <col min="4057" max="4057" width="13.86328125" style="19" customWidth="1"/>
+    <col min="4057" max="4057" width="13.875" style="19" customWidth="1"/>
     <col min="4058" max="4297" width="9" style="19"/>
-    <col min="4298" max="4298" width="9.1328125" style="19" customWidth="1"/>
-    <col min="4299" max="4299" width="5.46484375" style="19" customWidth="1"/>
-    <col min="4300" max="4303" width="6.265625" style="19" customWidth="1"/>
-    <col min="4304" max="4304" width="5.46484375" style="19" customWidth="1"/>
-    <col min="4305" max="4305" width="9.265625" style="19" customWidth="1"/>
-    <col min="4306" max="4306" width="5.46484375" style="19" customWidth="1"/>
-    <col min="4307" max="4310" width="6.265625" style="19" customWidth="1"/>
-    <col min="4311" max="4311" width="5.46484375" style="19" customWidth="1"/>
+    <col min="4298" max="4298" width="9.125" style="19" customWidth="1"/>
+    <col min="4299" max="4299" width="5.5" style="19" customWidth="1"/>
+    <col min="4300" max="4303" width="6.25" style="19" customWidth="1"/>
+    <col min="4304" max="4304" width="5.5" style="19" customWidth="1"/>
+    <col min="4305" max="4305" width="9.25" style="19" customWidth="1"/>
+    <col min="4306" max="4306" width="5.5" style="19" customWidth="1"/>
+    <col min="4307" max="4310" width="6.25" style="19" customWidth="1"/>
+    <col min="4311" max="4311" width="5.5" style="19" customWidth="1"/>
     <col min="4312" max="4312" width="9" style="19"/>
-    <col min="4313" max="4313" width="13.86328125" style="19" customWidth="1"/>
+    <col min="4313" max="4313" width="13.875" style="19" customWidth="1"/>
     <col min="4314" max="4553" width="9" style="19"/>
-    <col min="4554" max="4554" width="9.1328125" style="19" customWidth="1"/>
-    <col min="4555" max="4555" width="5.46484375" style="19" customWidth="1"/>
-    <col min="4556" max="4559" width="6.265625" style="19" customWidth="1"/>
-    <col min="4560" max="4560" width="5.46484375" style="19" customWidth="1"/>
-    <col min="4561" max="4561" width="9.265625" style="19" customWidth="1"/>
-    <col min="4562" max="4562" width="5.46484375" style="19" customWidth="1"/>
-    <col min="4563" max="4566" width="6.265625" style="19" customWidth="1"/>
-    <col min="4567" max="4567" width="5.46484375" style="19" customWidth="1"/>
+    <col min="4554" max="4554" width="9.125" style="19" customWidth="1"/>
+    <col min="4555" max="4555" width="5.5" style="19" customWidth="1"/>
+    <col min="4556" max="4559" width="6.25" style="19" customWidth="1"/>
+    <col min="4560" max="4560" width="5.5" style="19" customWidth="1"/>
+    <col min="4561" max="4561" width="9.25" style="19" customWidth="1"/>
+    <col min="4562" max="4562" width="5.5" style="19" customWidth="1"/>
+    <col min="4563" max="4566" width="6.25" style="19" customWidth="1"/>
+    <col min="4567" max="4567" width="5.5" style="19" customWidth="1"/>
     <col min="4568" max="4568" width="9" style="19"/>
-    <col min="4569" max="4569" width="13.86328125" style="19" customWidth="1"/>
+    <col min="4569" max="4569" width="13.875" style="19" customWidth="1"/>
     <col min="4570" max="4809" width="9" style="19"/>
-    <col min="4810" max="4810" width="9.1328125" style="19" customWidth="1"/>
-    <col min="4811" max="4811" width="5.46484375" style="19" customWidth="1"/>
-    <col min="4812" max="4815" width="6.265625" style="19" customWidth="1"/>
-    <col min="4816" max="4816" width="5.46484375" style="19" customWidth="1"/>
-    <col min="4817" max="4817" width="9.265625" style="19" customWidth="1"/>
-    <col min="4818" max="4818" width="5.46484375" style="19" customWidth="1"/>
-    <col min="4819" max="4822" width="6.265625" style="19" customWidth="1"/>
-    <col min="4823" max="4823" width="5.46484375" style="19" customWidth="1"/>
+    <col min="4810" max="4810" width="9.125" style="19" customWidth="1"/>
+    <col min="4811" max="4811" width="5.5" style="19" customWidth="1"/>
+    <col min="4812" max="4815" width="6.25" style="19" customWidth="1"/>
+    <col min="4816" max="4816" width="5.5" style="19" customWidth="1"/>
+    <col min="4817" max="4817" width="9.25" style="19" customWidth="1"/>
+    <col min="4818" max="4818" width="5.5" style="19" customWidth="1"/>
+    <col min="4819" max="4822" width="6.25" style="19" customWidth="1"/>
+    <col min="4823" max="4823" width="5.5" style="19" customWidth="1"/>
     <col min="4824" max="4824" width="9" style="19"/>
-    <col min="4825" max="4825" width="13.86328125" style="19" customWidth="1"/>
+    <col min="4825" max="4825" width="13.875" style="19" customWidth="1"/>
     <col min="4826" max="5065" width="9" style="19"/>
-    <col min="5066" max="5066" width="9.1328125" style="19" customWidth="1"/>
-    <col min="5067" max="5067" width="5.46484375" style="19" customWidth="1"/>
-    <col min="5068" max="5071" width="6.265625" style="19" customWidth="1"/>
-    <col min="5072" max="5072" width="5.46484375" style="19" customWidth="1"/>
-    <col min="5073" max="5073" width="9.265625" style="19" customWidth="1"/>
-    <col min="5074" max="5074" width="5.46484375" style="19" customWidth="1"/>
-    <col min="5075" max="5078" width="6.265625" style="19" customWidth="1"/>
-    <col min="5079" max="5079" width="5.46484375" style="19" customWidth="1"/>
+    <col min="5066" max="5066" width="9.125" style="19" customWidth="1"/>
+    <col min="5067" max="5067" width="5.5" style="19" customWidth="1"/>
+    <col min="5068" max="5071" width="6.25" style="19" customWidth="1"/>
+    <col min="5072" max="5072" width="5.5" style="19" customWidth="1"/>
+    <col min="5073" max="5073" width="9.25" style="19" customWidth="1"/>
+    <col min="5074" max="5074" width="5.5" style="19" customWidth="1"/>
+    <col min="5075" max="5078" width="6.25" style="19" customWidth="1"/>
+    <col min="5079" max="5079" width="5.5" style="19" customWidth="1"/>
     <col min="5080" max="5080" width="9" style="19"/>
-    <col min="5081" max="5081" width="13.86328125" style="19" customWidth="1"/>
+    <col min="5081" max="5081" width="13.875" style="19" customWidth="1"/>
     <col min="5082" max="5321" width="9" style="19"/>
-    <col min="5322" max="5322" width="9.1328125" style="19" customWidth="1"/>
-    <col min="5323" max="5323" width="5.46484375" style="19" customWidth="1"/>
-    <col min="5324" max="5327" width="6.265625" style="19" customWidth="1"/>
-    <col min="5328" max="5328" width="5.46484375" style="19" customWidth="1"/>
-    <col min="5329" max="5329" width="9.265625" style="19" customWidth="1"/>
-    <col min="5330" max="5330" width="5.46484375" style="19" customWidth="1"/>
-    <col min="5331" max="5334" width="6.265625" style="19" customWidth="1"/>
-    <col min="5335" max="5335" width="5.46484375" style="19" customWidth="1"/>
+    <col min="5322" max="5322" width="9.125" style="19" customWidth="1"/>
+    <col min="5323" max="5323" width="5.5" style="19" customWidth="1"/>
+    <col min="5324" max="5327" width="6.25" style="19" customWidth="1"/>
+    <col min="5328" max="5328" width="5.5" style="19" customWidth="1"/>
+    <col min="5329" max="5329" width="9.25" style="19" customWidth="1"/>
+    <col min="5330" max="5330" width="5.5" style="19" customWidth="1"/>
+    <col min="5331" max="5334" width="6.25" style="19" customWidth="1"/>
+    <col min="5335" max="5335" width="5.5" style="19" customWidth="1"/>
     <col min="5336" max="5336" width="9" style="19"/>
-    <col min="5337" max="5337" width="13.86328125" style="19" customWidth="1"/>
+    <col min="5337" max="5337" width="13.875" style="19" customWidth="1"/>
     <col min="5338" max="5577" width="9" style="19"/>
-    <col min="5578" max="5578" width="9.1328125" style="19" customWidth="1"/>
-    <col min="5579" max="5579" width="5.46484375" style="19" customWidth="1"/>
-    <col min="5580" max="5583" width="6.265625" style="19" customWidth="1"/>
-    <col min="5584" max="5584" width="5.46484375" style="19" customWidth="1"/>
-    <col min="5585" max="5585" width="9.265625" style="19" customWidth="1"/>
-    <col min="5586" max="5586" width="5.46484375" style="19" customWidth="1"/>
-    <col min="5587" max="5590" width="6.265625" style="19" customWidth="1"/>
-    <col min="5591" max="5591" width="5.46484375" style="19" customWidth="1"/>
+    <col min="5578" max="5578" width="9.125" style="19" customWidth="1"/>
+    <col min="5579" max="5579" width="5.5" style="19" customWidth="1"/>
+    <col min="5580" max="5583" width="6.25" style="19" customWidth="1"/>
+    <col min="5584" max="5584" width="5.5" style="19" customWidth="1"/>
+    <col min="5585" max="5585" width="9.25" style="19" customWidth="1"/>
+    <col min="5586" max="5586" width="5.5" style="19" customWidth="1"/>
+    <col min="5587" max="5590" width="6.25" style="19" customWidth="1"/>
+    <col min="5591" max="5591" width="5.5" style="19" customWidth="1"/>
     <col min="5592" max="5592" width="9" style="19"/>
-    <col min="5593" max="5593" width="13.86328125" style="19" customWidth="1"/>
+    <col min="5593" max="5593" width="13.875" style="19" customWidth="1"/>
     <col min="5594" max="5833" width="9" style="19"/>
-    <col min="5834" max="5834" width="9.1328125" style="19" customWidth="1"/>
-    <col min="5835" max="5835" width="5.46484375" style="19" customWidth="1"/>
-    <col min="5836" max="5839" width="6.265625" style="19" customWidth="1"/>
-    <col min="5840" max="5840" width="5.46484375" style="19" customWidth="1"/>
-    <col min="5841" max="5841" width="9.265625" style="19" customWidth="1"/>
-    <col min="5842" max="5842" width="5.46484375" style="19" customWidth="1"/>
-    <col min="5843" max="5846" width="6.265625" style="19" customWidth="1"/>
-    <col min="5847" max="5847" width="5.46484375" style="19" customWidth="1"/>
+    <col min="5834" max="5834" width="9.125" style="19" customWidth="1"/>
+    <col min="5835" max="5835" width="5.5" style="19" customWidth="1"/>
+    <col min="5836" max="5839" width="6.25" style="19" customWidth="1"/>
+    <col min="5840" max="5840" width="5.5" style="19" customWidth="1"/>
+    <col min="5841" max="5841" width="9.25" style="19" customWidth="1"/>
+    <col min="5842" max="5842" width="5.5" style="19" customWidth="1"/>
+    <col min="5843" max="5846" width="6.25" style="19" customWidth="1"/>
+    <col min="5847" max="5847" width="5.5" style="19" customWidth="1"/>
     <col min="5848" max="5848" width="9" style="19"/>
-    <col min="5849" max="5849" width="13.86328125" style="19" customWidth="1"/>
+    <col min="5849" max="5849" width="13.875" style="19" customWidth="1"/>
     <col min="5850" max="6089" width="9" style="19"/>
-    <col min="6090" max="6090" width="9.1328125" style="19" customWidth="1"/>
-    <col min="6091" max="6091" width="5.46484375" style="19" customWidth="1"/>
-    <col min="6092" max="6095" width="6.265625" style="19" customWidth="1"/>
-    <col min="6096" max="6096" width="5.46484375" style="19" customWidth="1"/>
-    <col min="6097" max="6097" width="9.265625" style="19" customWidth="1"/>
-    <col min="6098" max="6098" width="5.46484375" style="19" customWidth="1"/>
-    <col min="6099" max="6102" width="6.265625" style="19" customWidth="1"/>
-    <col min="6103" max="6103" width="5.46484375" style="19" customWidth="1"/>
+    <col min="6090" max="6090" width="9.125" style="19" customWidth="1"/>
+    <col min="6091" max="6091" width="5.5" style="19" customWidth="1"/>
+    <col min="6092" max="6095" width="6.25" style="19" customWidth="1"/>
+    <col min="6096" max="6096" width="5.5" style="19" customWidth="1"/>
+    <col min="6097" max="6097" width="9.25" style="19" customWidth="1"/>
+    <col min="6098" max="6098" width="5.5" style="19" customWidth="1"/>
+    <col min="6099" max="6102" width="6.25" style="19" customWidth="1"/>
+    <col min="6103" max="6103" width="5.5" style="19" customWidth="1"/>
     <col min="6104" max="6104" width="9" style="19"/>
-    <col min="6105" max="6105" width="13.86328125" style="19" customWidth="1"/>
+    <col min="6105" max="6105" width="13.875" style="19" customWidth="1"/>
     <col min="6106" max="6345" width="9" style="19"/>
-    <col min="6346" max="6346" width="9.1328125" style="19" customWidth="1"/>
-    <col min="6347" max="6347" width="5.46484375" style="19" customWidth="1"/>
-    <col min="6348" max="6351" width="6.265625" style="19" customWidth="1"/>
-    <col min="6352" max="6352" width="5.46484375" style="19" customWidth="1"/>
-    <col min="6353" max="6353" width="9.265625" style="19" customWidth="1"/>
-    <col min="6354" max="6354" width="5.46484375" style="19" customWidth="1"/>
-    <col min="6355" max="6358" width="6.265625" style="19" customWidth="1"/>
-    <col min="6359" max="6359" width="5.46484375" style="19" customWidth="1"/>
+    <col min="6346" max="6346" width="9.125" style="19" customWidth="1"/>
+    <col min="6347" max="6347" width="5.5" style="19" customWidth="1"/>
+    <col min="6348" max="6351" width="6.25" style="19" customWidth="1"/>
+    <col min="6352" max="6352" width="5.5" style="19" customWidth="1"/>
+    <col min="6353" max="6353" width="9.25" style="19" customWidth="1"/>
+    <col min="6354" max="6354" width="5.5" style="19" customWidth="1"/>
+    <col min="6355" max="6358" width="6.25" style="19" customWidth="1"/>
+    <col min="6359" max="6359" width="5.5" style="19" customWidth="1"/>
     <col min="6360" max="6360" width="9" style="19"/>
-    <col min="6361" max="6361" width="13.86328125" style="19" customWidth="1"/>
+    <col min="6361" max="6361" width="13.875" style="19" customWidth="1"/>
     <col min="6362" max="6601" width="9" style="19"/>
-    <col min="6602" max="6602" width="9.1328125" style="19" customWidth="1"/>
-    <col min="6603" max="6603" width="5.46484375" style="19" customWidth="1"/>
-    <col min="6604" max="6607" width="6.265625" style="19" customWidth="1"/>
-    <col min="6608" max="6608" width="5.46484375" style="19" customWidth="1"/>
-    <col min="6609" max="6609" width="9.265625" style="19" customWidth="1"/>
-    <col min="6610" max="6610" width="5.46484375" style="19" customWidth="1"/>
-    <col min="6611" max="6614" width="6.265625" style="19" customWidth="1"/>
-    <col min="6615" max="6615" width="5.46484375" style="19" customWidth="1"/>
+    <col min="6602" max="6602" width="9.125" style="19" customWidth="1"/>
+    <col min="6603" max="6603" width="5.5" style="19" customWidth="1"/>
+    <col min="6604" max="6607" width="6.25" style="19" customWidth="1"/>
+    <col min="6608" max="6608" width="5.5" style="19" customWidth="1"/>
+    <col min="6609" max="6609" width="9.25" style="19" customWidth="1"/>
+    <col min="6610" max="6610" width="5.5" style="19" customWidth="1"/>
+    <col min="6611" max="6614" width="6.25" style="19" customWidth="1"/>
+    <col min="6615" max="6615" width="5.5" style="19" customWidth="1"/>
     <col min="6616" max="6616" width="9" style="19"/>
-    <col min="6617" max="6617" width="13.86328125" style="19" customWidth="1"/>
+    <col min="6617" max="6617" width="13.875" style="19" customWidth="1"/>
     <col min="6618" max="6857" width="9" style="19"/>
-    <col min="6858" max="6858" width="9.1328125" style="19" customWidth="1"/>
-    <col min="6859" max="6859" width="5.46484375" style="19" customWidth="1"/>
-    <col min="6860" max="6863" width="6.265625" style="19" customWidth="1"/>
-    <col min="6864" max="6864" width="5.46484375" style="19" customWidth="1"/>
-    <col min="6865" max="6865" width="9.265625" style="19" customWidth="1"/>
-    <col min="6866" max="6866" width="5.46484375" style="19" customWidth="1"/>
-    <col min="6867" max="6870" width="6.265625" style="19" customWidth="1"/>
-    <col min="6871" max="6871" width="5.46484375" style="19" customWidth="1"/>
+    <col min="6858" max="6858" width="9.125" style="19" customWidth="1"/>
+    <col min="6859" max="6859" width="5.5" style="19" customWidth="1"/>
+    <col min="6860" max="6863" width="6.25" style="19" customWidth="1"/>
+    <col min="6864" max="6864" width="5.5" style="19" customWidth="1"/>
+    <col min="6865" max="6865" width="9.25" style="19" customWidth="1"/>
+    <col min="6866" max="6866" width="5.5" style="19" customWidth="1"/>
+    <col min="6867" max="6870" width="6.25" style="19" customWidth="1"/>
+    <col min="6871" max="6871" width="5.5" style="19" customWidth="1"/>
     <col min="6872" max="6872" width="9" style="19"/>
-    <col min="6873" max="6873" width="13.86328125" style="19" customWidth="1"/>
+    <col min="6873" max="6873" width="13.875" style="19" customWidth="1"/>
     <col min="6874" max="7113" width="9" style="19"/>
-    <col min="7114" max="7114" width="9.1328125" style="19" customWidth="1"/>
-    <col min="7115" max="7115" width="5.46484375" style="19" customWidth="1"/>
-    <col min="7116" max="7119" width="6.265625" style="19" customWidth="1"/>
-    <col min="7120" max="7120" width="5.46484375" style="19" customWidth="1"/>
-    <col min="7121" max="7121" width="9.265625" style="19" customWidth="1"/>
-    <col min="7122" max="7122" width="5.46484375" style="19" customWidth="1"/>
-    <col min="7123" max="7126" width="6.265625" style="19" customWidth="1"/>
-    <col min="7127" max="7127" width="5.46484375" style="19" customWidth="1"/>
+    <col min="7114" max="7114" width="9.125" style="19" customWidth="1"/>
+    <col min="7115" max="7115" width="5.5" style="19" customWidth="1"/>
+    <col min="7116" max="7119" width="6.25" style="19" customWidth="1"/>
+    <col min="7120" max="7120" width="5.5" style="19" customWidth="1"/>
+    <col min="7121" max="7121" width="9.25" style="19" customWidth="1"/>
+    <col min="7122" max="7122" width="5.5" style="19" customWidth="1"/>
+    <col min="7123" max="7126" width="6.25" style="19" customWidth="1"/>
+    <col min="7127" max="7127" width="5.5" style="19" customWidth="1"/>
     <col min="7128" max="7128" width="9" style="19"/>
-    <col min="7129" max="7129" width="13.86328125" style="19" customWidth="1"/>
+    <col min="7129" max="7129" width="13.875" style="19" customWidth="1"/>
     <col min="7130" max="7369" width="9" style="19"/>
-    <col min="7370" max="7370" width="9.1328125" style="19" customWidth="1"/>
-    <col min="7371" max="7371" width="5.46484375" style="19" customWidth="1"/>
-    <col min="7372" max="7375" width="6.265625" style="19" customWidth="1"/>
-    <col min="7376" max="7376" width="5.46484375" style="19" customWidth="1"/>
-    <col min="7377" max="7377" width="9.265625" style="19" customWidth="1"/>
-    <col min="7378" max="7378" width="5.46484375" style="19" customWidth="1"/>
-    <col min="7379" max="7382" width="6.265625" style="19" customWidth="1"/>
-    <col min="7383" max="7383" width="5.46484375" style="19" customWidth="1"/>
+    <col min="7370" max="7370" width="9.125" style="19" customWidth="1"/>
+    <col min="7371" max="7371" width="5.5" style="19" customWidth="1"/>
+    <col min="7372" max="7375" width="6.25" style="19" customWidth="1"/>
+    <col min="7376" max="7376" width="5.5" style="19" customWidth="1"/>
+    <col min="7377" max="7377" width="9.25" style="19" customWidth="1"/>
+    <col min="7378" max="7378" width="5.5" style="19" customWidth="1"/>
+    <col min="7379" max="7382" width="6.25" style="19" customWidth="1"/>
+    <col min="7383" max="7383" width="5.5" style="19" customWidth="1"/>
     <col min="7384" max="7384" width="9" style="19"/>
-    <col min="7385" max="7385" width="13.86328125" style="19" customWidth="1"/>
+    <col min="7385" max="7385" width="13.875" style="19" customWidth="1"/>
     <col min="7386" max="7625" width="9" style="19"/>
-    <col min="7626" max="7626" width="9.1328125" style="19" customWidth="1"/>
-    <col min="7627" max="7627" width="5.46484375" style="19" customWidth="1"/>
-    <col min="7628" max="7631" width="6.265625" style="19" customWidth="1"/>
-    <col min="7632" max="7632" width="5.46484375" style="19" customWidth="1"/>
-    <col min="7633" max="7633" width="9.265625" style="19" customWidth="1"/>
-    <col min="7634" max="7634" width="5.46484375" style="19" customWidth="1"/>
-    <col min="7635" max="7638" width="6.265625" style="19" customWidth="1"/>
-    <col min="7639" max="7639" width="5.46484375" style="19" customWidth="1"/>
+    <col min="7626" max="7626" width="9.125" style="19" customWidth="1"/>
+    <col min="7627" max="7627" width="5.5" style="19" customWidth="1"/>
+    <col min="7628" max="7631" width="6.25" style="19" customWidth="1"/>
+    <col min="7632" max="7632" width="5.5" style="19" customWidth="1"/>
+    <col min="7633" max="7633" width="9.25" style="19" customWidth="1"/>
+    <col min="7634" max="7634" width="5.5" style="19" customWidth="1"/>
+    <col min="7635" max="7638" width="6.25" style="19" customWidth="1"/>
+    <col min="7639" max="7639" width="5.5" style="19" customWidth="1"/>
     <col min="7640" max="7640" width="9" style="19"/>
-    <col min="7641" max="7641" width="13.86328125" style="19" customWidth="1"/>
+    <col min="7641" max="7641" width="13.875" style="19" customWidth="1"/>
     <col min="7642" max="7881" width="9" style="19"/>
-    <col min="7882" max="7882" width="9.1328125" style="19" customWidth="1"/>
-    <col min="7883" max="7883" width="5.46484375" style="19" customWidth="1"/>
-    <col min="7884" max="7887" width="6.265625" style="19" customWidth="1"/>
-    <col min="7888" max="7888" width="5.46484375" style="19" customWidth="1"/>
-    <col min="7889" max="7889" width="9.265625" style="19" customWidth="1"/>
-    <col min="7890" max="7890" width="5.46484375" style="19" customWidth="1"/>
-    <col min="7891" max="7894" width="6.265625" style="19" customWidth="1"/>
-    <col min="7895" max="7895" width="5.46484375" style="19" customWidth="1"/>
+    <col min="7882" max="7882" width="9.125" style="19" customWidth="1"/>
+    <col min="7883" max="7883" width="5.5" style="19" customWidth="1"/>
+    <col min="7884" max="7887" width="6.25" style="19" customWidth="1"/>
+    <col min="7888" max="7888" width="5.5" style="19" customWidth="1"/>
+    <col min="7889" max="7889" width="9.25" style="19" customWidth="1"/>
+    <col min="7890" max="7890" width="5.5" style="19" customWidth="1"/>
+    <col min="7891" max="7894" width="6.25" style="19" customWidth="1"/>
+    <col min="7895" max="7895" width="5.5" style="19" customWidth="1"/>
     <col min="7896" max="7896" width="9" style="19"/>
-    <col min="7897" max="7897" width="13.86328125" style="19" customWidth="1"/>
+    <col min="7897" max="7897" width="13.875" style="19" customWidth="1"/>
     <col min="7898" max="8137" width="9" style="19"/>
-    <col min="8138" max="8138" width="9.1328125" style="19" customWidth="1"/>
-    <col min="8139" max="8139" width="5.46484375" style="19" customWidth="1"/>
-    <col min="8140" max="8143" width="6.265625" style="19" customWidth="1"/>
-    <col min="8144" max="8144" width="5.46484375" style="19" customWidth="1"/>
-    <col min="8145" max="8145" width="9.265625" style="19" customWidth="1"/>
-    <col min="8146" max="8146" width="5.46484375" style="19" customWidth="1"/>
-    <col min="8147" max="8150" width="6.265625" style="19" customWidth="1"/>
-    <col min="8151" max="8151" width="5.46484375" style="19" customWidth="1"/>
+    <col min="8138" max="8138" width="9.125" style="19" customWidth="1"/>
+    <col min="8139" max="8139" width="5.5" style="19" customWidth="1"/>
+    <col min="8140" max="8143" width="6.25" style="19" customWidth="1"/>
+    <col min="8144" max="8144" width="5.5" style="19" customWidth="1"/>
+    <col min="8145" max="8145" width="9.25" style="19" customWidth="1"/>
+    <col min="8146" max="8146" width="5.5" style="19" customWidth="1"/>
+    <col min="8147" max="8150" width="6.25" style="19" customWidth="1"/>
+    <col min="8151" max="8151" width="5.5" style="19" customWidth="1"/>
     <col min="8152" max="8152" width="9" style="19"/>
-    <col min="8153" max="8153" width="13.86328125" style="19" customWidth="1"/>
+    <col min="8153" max="8153" width="13.875" style="19" customWidth="1"/>
     <col min="8154" max="8393" width="9" style="19"/>
-    <col min="8394" max="8394" width="9.1328125" style="19" customWidth="1"/>
-    <col min="8395" max="8395" width="5.46484375" style="19" customWidth="1"/>
-    <col min="8396" max="8399" width="6.265625" style="19" customWidth="1"/>
-    <col min="8400" max="8400" width="5.46484375" style="19" customWidth="1"/>
-    <col min="8401" max="8401" width="9.265625" style="19" customWidth="1"/>
-    <col min="8402" max="8402" width="5.46484375" style="19" customWidth="1"/>
-    <col min="8403" max="8406" width="6.265625" style="19" customWidth="1"/>
-    <col min="8407" max="8407" width="5.46484375" style="19" customWidth="1"/>
+    <col min="8394" max="8394" width="9.125" style="19" customWidth="1"/>
+    <col min="8395" max="8395" width="5.5" style="19" customWidth="1"/>
+    <col min="8396" max="8399" width="6.25" style="19" customWidth="1"/>
+    <col min="8400" max="8400" width="5.5" style="19" customWidth="1"/>
+    <col min="8401" max="8401" width="9.25" style="19" customWidth="1"/>
+    <col min="8402" max="8402" width="5.5" style="19" customWidth="1"/>
+    <col min="8403" max="8406" width="6.25" style="19" customWidth="1"/>
+    <col min="8407" max="8407" width="5.5" style="19" customWidth="1"/>
     <col min="8408" max="8408" width="9" style="19"/>
-    <col min="8409" max="8409" width="13.86328125" style="19" customWidth="1"/>
+    <col min="8409" max="8409" width="13.875" style="19" customWidth="1"/>
     <col min="8410" max="8649" width="9" style="19"/>
-    <col min="8650" max="8650" width="9.1328125" style="19" customWidth="1"/>
-    <col min="8651" max="8651" width="5.46484375" style="19" customWidth="1"/>
-    <col min="8652" max="8655" width="6.265625" style="19" customWidth="1"/>
-    <col min="8656" max="8656" width="5.46484375" style="19" customWidth="1"/>
-    <col min="8657" max="8657" width="9.265625" style="19" customWidth="1"/>
-    <col min="8658" max="8658" width="5.46484375" style="19" customWidth="1"/>
-    <col min="8659" max="8662" width="6.265625" style="19" customWidth="1"/>
-    <col min="8663" max="8663" width="5.46484375" style="19" customWidth="1"/>
+    <col min="8650" max="8650" width="9.125" style="19" customWidth="1"/>
+    <col min="8651" max="8651" width="5.5" style="19" customWidth="1"/>
+    <col min="8652" max="8655" width="6.25" style="19" customWidth="1"/>
+    <col min="8656" max="8656" width="5.5" style="19" customWidth="1"/>
+    <col min="8657" max="8657" width="9.25" style="19" customWidth="1"/>
+    <col min="8658" max="8658" width="5.5" style="19" customWidth="1"/>
+    <col min="8659" max="8662" width="6.25" style="19" customWidth="1"/>
+    <col min="8663" max="8663" width="5.5" style="19" customWidth="1"/>
     <col min="8664" max="8664" width="9" style="19"/>
-    <col min="8665" max="8665" width="13.86328125" style="19" customWidth="1"/>
+    <col min="8665" max="8665" width="13.875" style="19" customWidth="1"/>
     <col min="8666" max="8905" width="9" style="19"/>
-    <col min="8906" max="8906" width="9.1328125" style="19" customWidth="1"/>
-    <col min="8907" max="8907" width="5.46484375" style="19" customWidth="1"/>
-    <col min="8908" max="8911" width="6.265625" style="19" customWidth="1"/>
-    <col min="8912" max="8912" width="5.46484375" style="19" customWidth="1"/>
-    <col min="8913" max="8913" width="9.265625" style="19" customWidth="1"/>
-    <col min="8914" max="8914" width="5.46484375" style="19" customWidth="1"/>
-    <col min="8915" max="8918" width="6.265625" style="19" customWidth="1"/>
-    <col min="8919" max="8919" width="5.46484375" style="19" customWidth="1"/>
+    <col min="8906" max="8906" width="9.125" style="19" customWidth="1"/>
+    <col min="8907" max="8907" width="5.5" style="19" customWidth="1"/>
+    <col min="8908" max="8911" width="6.25" style="19" customWidth="1"/>
+    <col min="8912" max="8912" width="5.5" style="19" customWidth="1"/>
+    <col min="8913" max="8913" width="9.25" style="19" customWidth="1"/>
+    <col min="8914" max="8914" width="5.5" style="19" customWidth="1"/>
+    <col min="8915" max="8918" width="6.25" style="19" customWidth="1"/>
+    <col min="8919" max="8919" width="5.5" style="19" customWidth="1"/>
     <col min="8920" max="8920" width="9" style="19"/>
-    <col min="8921" max="8921" width="13.86328125" style="19" customWidth="1"/>
+    <col min="8921" max="8921" width="13.875" style="19" customWidth="1"/>
     <col min="8922" max="9161" width="9" style="19"/>
-    <col min="9162" max="9162" width="9.1328125" style="19" customWidth="1"/>
-    <col min="9163" max="9163" width="5.46484375" style="19" customWidth="1"/>
-    <col min="9164" max="9167" width="6.265625" style="19" customWidth="1"/>
-    <col min="9168" max="9168" width="5.46484375" style="19" customWidth="1"/>
-    <col min="9169" max="9169" width="9.265625" style="19" customWidth="1"/>
-    <col min="9170" max="9170" width="5.46484375" style="19" customWidth="1"/>
-    <col min="9171" max="9174" width="6.265625" style="19" customWidth="1"/>
-    <col min="9175" max="9175" width="5.46484375" style="19" customWidth="1"/>
+    <col min="9162" max="9162" width="9.125" style="19" customWidth="1"/>
+    <col min="9163" max="9163" width="5.5" style="19" customWidth="1"/>
+    <col min="9164" max="9167" width="6.25" style="19" customWidth="1"/>
+    <col min="9168" max="9168" width="5.5" style="19" customWidth="1"/>
+    <col min="9169" max="9169" width="9.25" style="19" customWidth="1"/>
+    <col min="9170" max="9170" width="5.5" style="19" customWidth="1"/>
+    <col min="9171" max="9174" width="6.25" style="19" customWidth="1"/>
+    <col min="9175" max="9175" width="5.5" style="19" customWidth="1"/>
     <col min="9176" max="9176" width="9" style="19"/>
-    <col min="9177" max="9177" width="13.86328125" style="19" customWidth="1"/>
+    <col min="9177" max="9177" width="13.875" style="19" customWidth="1"/>
     <col min="9178" max="9417" width="9" style="19"/>
-    <col min="9418" max="9418" width="9.1328125" style="19" customWidth="1"/>
-    <col min="9419" max="9419" width="5.46484375" style="19" customWidth="1"/>
-    <col min="9420" max="9423" width="6.265625" style="19" customWidth="1"/>
-    <col min="9424" max="9424" width="5.46484375" style="19" customWidth="1"/>
-    <col min="9425" max="9425" width="9.265625" style="19" customWidth="1"/>
-    <col min="9426" max="9426" width="5.46484375" style="19" customWidth="1"/>
-    <col min="9427" max="9430" width="6.265625" style="19" customWidth="1"/>
-    <col min="9431" max="9431" width="5.46484375" style="19" customWidth="1"/>
+    <col min="9418" max="9418" width="9.125" style="19" customWidth="1"/>
+    <col min="9419" max="9419" width="5.5" style="19" customWidth="1"/>
+    <col min="9420" max="9423" width="6.25" style="19" customWidth="1"/>
+    <col min="9424" max="9424" width="5.5" style="19" customWidth="1"/>
+    <col min="9425" max="9425" width="9.25" style="19" customWidth="1"/>
+    <col min="9426" max="9426" width="5.5" style="19" customWidth="1"/>
+    <col min="9427" max="9430" width="6.25" style="19" customWidth="1"/>
+    <col min="9431" max="9431" width="5.5" style="19" customWidth="1"/>
     <col min="9432" max="9432" width="9" style="19"/>
-    <col min="9433" max="9433" width="13.86328125" style="19" customWidth="1"/>
+    <col min="9433" max="9433" width="13.875" style="19" customWidth="1"/>
     <col min="9434" max="9673" width="9" style="19"/>
-    <col min="9674" max="9674" width="9.1328125" style="19" customWidth="1"/>
-    <col min="9675" max="9675" width="5.46484375" style="19" customWidth="1"/>
-    <col min="9676" max="9679" width="6.265625" style="19" customWidth="1"/>
-    <col min="9680" max="9680" width="5.46484375" style="19" customWidth="1"/>
-    <col min="9681" max="9681" width="9.265625" style="19" customWidth="1"/>
-    <col min="9682" max="9682" width="5.46484375" style="19" customWidth="1"/>
-    <col min="9683" max="9686" width="6.265625" style="19" customWidth="1"/>
-    <col min="9687" max="9687" width="5.46484375" style="19" customWidth="1"/>
+    <col min="9674" max="9674" width="9.125" style="19" customWidth="1"/>
+    <col min="9675" max="9675" width="5.5" style="19" customWidth="1"/>
+    <col min="9676" max="9679" width="6.25" style="19" customWidth="1"/>
+    <col min="9680" max="9680" width="5.5" style="19" customWidth="1"/>
+    <col min="9681" max="9681" width="9.25" style="19" customWidth="1"/>
+    <col min="9682" max="9682" width="5.5" style="19" customWidth="1"/>
+    <col min="9683" max="9686" width="6.25" style="19" customWidth="1"/>
+    <col min="9687" max="9687" width="5.5" style="19" customWidth="1"/>
     <col min="9688" max="9688" width="9" style="19"/>
-    <col min="9689" max="9689" width="13.86328125" style="19" customWidth="1"/>
+    <col min="9689" max="9689" width="13.875" style="19" customWidth="1"/>
     <col min="9690" max="9929" width="9" style="19"/>
-    <col min="9930" max="9930" width="9.1328125" style="19" customWidth="1"/>
-    <col min="9931" max="9931" width="5.46484375" style="19" customWidth="1"/>
-    <col min="9932" max="9935" width="6.265625" style="19" customWidth="1"/>
-    <col min="9936" max="9936" width="5.46484375" style="19" customWidth="1"/>
-    <col min="9937" max="9937" width="9.265625" style="19" customWidth="1"/>
-    <col min="9938" max="9938" width="5.46484375" style="19" customWidth="1"/>
-    <col min="9939" max="9942" width="6.265625" style="19" customWidth="1"/>
-    <col min="9943" max="9943" width="5.46484375" style="19" customWidth="1"/>
+    <col min="9930" max="9930" width="9.125" style="19" customWidth="1"/>
+    <col min="9931" max="9931" width="5.5" style="19" customWidth="1"/>
+    <col min="9932" max="9935" width="6.25" style="19" customWidth="1"/>
+    <col min="9936" max="9936" width="5.5" style="19" customWidth="1"/>
+    <col min="9937" max="9937" width="9.25" style="19" customWidth="1"/>
+    <col min="9938" max="9938" width="5.5" style="19" customWidth="1"/>
+    <col min="9939" max="9942" width="6.25" style="19" customWidth="1"/>
+    <col min="9943" max="9943" width="5.5" style="19" customWidth="1"/>
     <col min="9944" max="9944" width="9" style="19"/>
-    <col min="9945" max="9945" width="13.86328125" style="19" customWidth="1"/>
+    <col min="9945" max="9945" width="13.875" style="19" customWidth="1"/>
     <col min="9946" max="10185" width="9" style="19"/>
-    <col min="10186" max="10186" width="9.1328125" style="19" customWidth="1"/>
-    <col min="10187" max="10187" width="5.46484375" style="19" customWidth="1"/>
-    <col min="10188" max="10191" width="6.265625" style="19" customWidth="1"/>
-    <col min="10192" max="10192" width="5.46484375" style="19" customWidth="1"/>
-    <col min="10193" max="10193" width="9.265625" style="19" customWidth="1"/>
-    <col min="10194" max="10194" width="5.46484375" style="19" customWidth="1"/>
-    <col min="10195" max="10198" width="6.265625" style="19" customWidth="1"/>
-    <col min="10199" max="10199" width="5.46484375" style="19" customWidth="1"/>
+    <col min="10186" max="10186" width="9.125" style="19" customWidth="1"/>
+    <col min="10187" max="10187" width="5.5" style="19" customWidth="1"/>
+    <col min="10188" max="10191" width="6.25" style="19" customWidth="1"/>
+    <col min="10192" max="10192" width="5.5" style="19" customWidth="1"/>
+    <col min="10193" max="10193" width="9.25" style="19" customWidth="1"/>
+    <col min="10194" max="10194" width="5.5" style="19" customWidth="1"/>
+    <col min="10195" max="10198" width="6.25" style="19" customWidth="1"/>
+    <col min="10199" max="10199" width="5.5" style="19" customWidth="1"/>
     <col min="10200" max="10200" width="9" style="19"/>
-    <col min="10201" max="10201" width="13.86328125" style="19" customWidth="1"/>
+    <col min="10201" max="10201" width="13.875" style="19" customWidth="1"/>
     <col min="10202" max="10441" width="9" style="19"/>
-    <col min="10442" max="10442" width="9.1328125" style="19" customWidth="1"/>
-    <col min="10443" max="10443" width="5.46484375" style="19" customWidth="1"/>
-    <col min="10444" max="10447" width="6.265625" style="19" customWidth="1"/>
-    <col min="10448" max="10448" width="5.46484375" style="19" customWidth="1"/>
-    <col min="10449" max="10449" width="9.265625" style="19" customWidth="1"/>
-    <col min="10450" max="10450" width="5.46484375" style="19" customWidth="1"/>
-    <col min="10451" max="10454" width="6.265625" style="19" customWidth="1"/>
-    <col min="10455" max="10455" width="5.46484375" style="19" customWidth="1"/>
+    <col min="10442" max="10442" width="9.125" style="19" customWidth="1"/>
+    <col min="10443" max="10443" width="5.5" style="19" customWidth="1"/>
+    <col min="10444" max="10447" width="6.25" style="19" customWidth="1"/>
+    <col min="10448" max="10448" width="5.5" style="19" customWidth="1"/>
+    <col min="10449" max="10449" width="9.25" style="19" customWidth="1"/>
+    <col min="10450" max="10450" width="5.5" style="19" customWidth="1"/>
+    <col min="10451" max="10454" width="6.25" style="19" customWidth="1"/>
+    <col min="10455" max="10455" width="5.5" style="19" customWidth="1"/>
     <col min="10456" max="10456" width="9" style="19"/>
-    <col min="10457" max="10457" width="13.86328125" style="19" customWidth="1"/>
+    <col min="10457" max="10457" width="13.875" style="19" customWidth="1"/>
     <col min="10458" max="10697" width="9" style="19"/>
-    <col min="10698" max="10698" width="9.1328125" style="19" customWidth="1"/>
-    <col min="10699" max="10699" width="5.46484375" style="19" customWidth="1"/>
-    <col min="10700" max="10703" width="6.265625" style="19" customWidth="1"/>
-    <col min="10704" max="10704" width="5.46484375" style="19" customWidth="1"/>
-    <col min="10705" max="10705" width="9.265625" style="19" customWidth="1"/>
-    <col min="10706" max="10706" width="5.46484375" style="19" customWidth="1"/>
-    <col min="10707" max="10710" width="6.265625" style="19" customWidth="1"/>
-    <col min="10711" max="10711" width="5.46484375" style="19" customWidth="1"/>
+    <col min="10698" max="10698" width="9.125" style="19" customWidth="1"/>
+    <col min="10699" max="10699" width="5.5" style="19" customWidth="1"/>
+    <col min="10700" max="10703" width="6.25" style="19" customWidth="1"/>
+    <col min="10704" max="10704" width="5.5" style="19" customWidth="1"/>
+    <col min="10705" max="10705" width="9.25" style="19" customWidth="1"/>
+    <col min="10706" max="10706" width="5.5" style="19" customWidth="1"/>
+    <col min="10707" max="10710" width="6.25" style="19" customWidth="1"/>
+    <col min="10711" max="10711" width="5.5" style="19" customWidth="1"/>
     <col min="10712" max="10712" width="9" style="19"/>
-    <col min="10713" max="10713" width="13.86328125" style="19" customWidth="1"/>
+    <col min="10713" max="10713" width="13.875" style="19" customWidth="1"/>
     <col min="10714" max="10953" width="9" style="19"/>
-    <col min="10954" max="10954" width="9.1328125" style="19" customWidth="1"/>
-    <col min="10955" max="10955" width="5.46484375" style="19" customWidth="1"/>
-    <col min="10956" max="10959" width="6.265625" style="19" customWidth="1"/>
-    <col min="10960" max="10960" width="5.46484375" style="19" customWidth="1"/>
-    <col min="10961" max="10961" width="9.265625" style="19" customWidth="1"/>
-    <col min="10962" max="10962" width="5.46484375" style="19" customWidth="1"/>
-    <col min="10963" max="10966" width="6.265625" style="19" customWidth="1"/>
-    <col min="10967" max="10967" width="5.46484375" style="19" customWidth="1"/>
+    <col min="10954" max="10954" width="9.125" style="19" customWidth="1"/>
+    <col min="10955" max="10955" width="5.5" style="19" customWidth="1"/>
+    <col min="10956" max="10959" width="6.25" style="19" customWidth="1"/>
+    <col min="10960" max="10960" width="5.5" style="19" customWidth="1"/>
+    <col min="10961" max="10961" width="9.25" style="19" customWidth="1"/>
+    <col min="10962" max="10962" width="5.5" style="19" customWidth="1"/>
+    <col min="10963" max="10966" width="6.25" style="19" customWidth="1"/>
+    <col min="10967" max="10967" width="5.5" style="19" customWidth="1"/>
     <col min="10968" max="10968" width="9" style="19"/>
-    <col min="10969" max="10969" width="13.86328125" style="19" customWidth="1"/>
+    <col min="10969" max="10969" width="13.875" style="19" customWidth="1"/>
     <col min="10970" max="11209" width="9" style="19"/>
-    <col min="11210" max="11210" width="9.1328125" style="19" customWidth="1"/>
-    <col min="11211" max="11211" width="5.46484375" style="19" customWidth="1"/>
-    <col min="11212" max="11215" width="6.265625" style="19" customWidth="1"/>
-    <col min="11216" max="11216" width="5.46484375" style="19" customWidth="1"/>
-    <col min="11217" max="11217" width="9.265625" style="19" customWidth="1"/>
-    <col min="11218" max="11218" width="5.46484375" style="19" customWidth="1"/>
-    <col min="11219" max="11222" width="6.265625" style="19" customWidth="1"/>
-    <col min="11223" max="11223" width="5.46484375" style="19" customWidth="1"/>
+    <col min="11210" max="11210" width="9.125" style="19" customWidth="1"/>
+    <col min="11211" max="11211" width="5.5" style="19" customWidth="1"/>
+    <col min="11212" max="11215" width="6.25" style="19" customWidth="1"/>
+    <col min="11216" max="11216" width="5.5" style="19" customWidth="1"/>
+    <col min="11217" max="11217" width="9.25" style="19" customWidth="1"/>
+    <col min="11218" max="11218" width="5.5" style="19" customWidth="1"/>
+    <col min="11219" max="11222" width="6.25" style="19" customWidth="1"/>
+    <col min="11223" max="11223" width="5.5" style="19" customWidth="1"/>
     <col min="11224" max="11224" width="9" style="19"/>
-    <col min="11225" max="11225" width="13.86328125" style="19" customWidth="1"/>
+    <col min="11225" max="11225" width="13.875" style="19" customWidth="1"/>
     <col min="11226" max="11465" width="9" style="19"/>
-    <col min="11466" max="11466" width="9.1328125" style="19" customWidth="1"/>
-    <col min="11467" max="11467" width="5.46484375" style="19" customWidth="1"/>
-    <col min="11468" max="11471" width="6.265625" style="19" customWidth="1"/>
-    <col min="11472" max="11472" width="5.46484375" style="19" customWidth="1"/>
-    <col min="11473" max="11473" width="9.265625" style="19" customWidth="1"/>
-    <col min="11474" max="11474" width="5.46484375" style="19" customWidth="1"/>
-    <col min="11475" max="11478" width="6.265625" style="19" customWidth="1"/>
-    <col min="11479" max="11479" width="5.46484375" style="19" customWidth="1"/>
+    <col min="11466" max="11466" width="9.125" style="19" customWidth="1"/>
+    <col min="11467" max="11467" width="5.5" style="19" customWidth="1"/>
+    <col min="11468" max="11471" width="6.25" style="19" customWidth="1"/>
+    <col min="11472" max="11472" width="5.5" style="19" customWidth="1"/>
+    <col min="11473" max="11473" width="9.25" style="19" customWidth="1"/>
+    <col min="11474" max="11474" width="5.5" style="19" customWidth="1"/>
+    <col min="11475" max="11478" width="6.25" style="19" customWidth="1"/>
+    <col min="11479" max="11479" width="5.5" style="19" customWidth="1"/>
     <col min="11480" max="11480" width="9" style="19"/>
-    <col min="11481" max="11481" width="13.86328125" style="19" customWidth="1"/>
+    <col min="11481" max="11481" width="13.875" style="19" customWidth="1"/>
     <col min="11482" max="11721" width="9" style="19"/>
-    <col min="11722" max="11722" width="9.1328125" style="19" customWidth="1"/>
-    <col min="11723" max="11723" width="5.46484375" style="19" customWidth="1"/>
-    <col min="11724" max="11727" width="6.265625" style="19" customWidth="1"/>
-    <col min="11728" max="11728" width="5.46484375" style="19" customWidth="1"/>
-    <col min="11729" max="11729" width="9.265625" style="19" customWidth="1"/>
-    <col min="11730" max="11730" width="5.46484375" style="19" customWidth="1"/>
-    <col min="11731" max="11734" width="6.265625" style="19" customWidth="1"/>
-    <col min="11735" max="11735" width="5.46484375" style="19" customWidth="1"/>
+    <col min="11722" max="11722" width="9.125" style="19" customWidth="1"/>
+    <col min="11723" max="11723" width="5.5" style="19" customWidth="1"/>
+    <col min="11724" max="11727" width="6.25" style="19" customWidth="1"/>
+    <col min="11728" max="11728" width="5.5" style="19" customWidth="1"/>
+    <col min="11729" max="11729" width="9.25" style="19" customWidth="1"/>
+    <col min="11730" max="11730" width="5.5" style="19" customWidth="1"/>
+    <col min="11731" max="11734" width="6.25" style="19" customWidth="1"/>
+    <col min="11735" max="11735" width="5.5" style="19" customWidth="1"/>
     <col min="11736" max="11736" width="9" style="19"/>
-    <col min="11737" max="11737" width="13.86328125" style="19" customWidth="1"/>
+    <col min="11737" max="11737" width="13.875" style="19" customWidth="1"/>
     <col min="11738" max="11977" width="9" style="19"/>
-    <col min="11978" max="11978" width="9.1328125" style="19" customWidth="1"/>
-    <col min="11979" max="11979" width="5.46484375" style="19" customWidth="1"/>
-    <col min="11980" max="11983" width="6.265625" style="19" customWidth="1"/>
-    <col min="11984" max="11984" width="5.46484375" style="19" customWidth="1"/>
-    <col min="11985" max="11985" width="9.265625" style="19" customWidth="1"/>
-    <col min="11986" max="11986" width="5.46484375" style="19" customWidth="1"/>
-    <col min="11987" max="11990" width="6.265625" style="19" customWidth="1"/>
-    <col min="11991" max="11991" width="5.46484375" style="19" customWidth="1"/>
+    <col min="11978" max="11978" width="9.125" style="19" customWidth="1"/>
+    <col min="11979" max="11979" width="5.5" style="19" customWidth="1"/>
+    <col min="11980" max="11983" width="6.25" style="19" customWidth="1"/>
+    <col min="11984" max="11984" width="5.5" style="19" customWidth="1"/>
+    <col min="11985" max="11985" width="9.25" style="19" customWidth="1"/>
+    <col min="11986" max="11986" width="5.5" style="19" customWidth="1"/>
+    <col min="11987" max="11990" width="6.25" style="19" customWidth="1"/>
+    <col min="11991" max="11991" width="5.5" style="19" customWidth="1"/>
     <col min="11992" max="11992" width="9" style="19"/>
-    <col min="11993" max="11993" width="13.86328125" style="19" customWidth="1"/>
+    <col min="11993" max="11993" width="13.875" style="19" customWidth="1"/>
     <col min="11994" max="12233" width="9" style="19"/>
-    <col min="12234" max="12234" width="9.1328125" style="19" customWidth="1"/>
-    <col min="12235" max="12235" width="5.46484375" style="19" customWidth="1"/>
-    <col min="12236" max="12239" width="6.265625" style="19" customWidth="1"/>
-    <col min="12240" max="12240" width="5.46484375" style="19" customWidth="1"/>
-    <col min="12241" max="12241" width="9.265625" style="19" customWidth="1"/>
-    <col min="12242" max="12242" width="5.46484375" style="19" customWidth="1"/>
-    <col min="12243" max="12246" width="6.265625" style="19" customWidth="1"/>
-    <col min="12247" max="12247" width="5.46484375" style="19" customWidth="1"/>
+    <col min="12234" max="12234" width="9.125" style="19" customWidth="1"/>
+    <col min="12235" max="12235" width="5.5" style="19" customWidth="1"/>
+    <col min="12236" max="12239" width="6.25" style="19" customWidth="1"/>
+    <col min="12240" max="12240" width="5.5" style="19" customWidth="1"/>
+    <col min="12241" max="12241" width="9.25" style="19" customWidth="1"/>
+    <col min="12242" max="12242" width="5.5" style="19" customWidth="1"/>
+    <col min="12243" max="12246" width="6.25" style="19" customWidth="1"/>
+    <col min="12247" max="12247" width="5.5" style="19" customWidth="1"/>
     <col min="12248" max="12248" width="9" style="19"/>
-    <col min="12249" max="12249" width="13.86328125" style="19" customWidth="1"/>
+    <col min="12249" max="12249" width="13.875" style="19" customWidth="1"/>
     <col min="12250" max="12489" width="9" style="19"/>
-    <col min="12490" max="12490" width="9.1328125" style="19" customWidth="1"/>
-    <col min="12491" max="12491" width="5.46484375" style="19" customWidth="1"/>
-    <col min="12492" max="12495" width="6.265625" style="19" customWidth="1"/>
-    <col min="12496" max="12496" width="5.46484375" style="19" customWidth="1"/>
-    <col min="12497" max="12497" width="9.265625" style="19" customWidth="1"/>
-    <col min="12498" max="12498" width="5.46484375" style="19" customWidth="1"/>
-    <col min="12499" max="12502" width="6.265625" style="19" customWidth="1"/>
-    <col min="12503" max="12503" width="5.46484375" style="19" customWidth="1"/>
+    <col min="12490" max="12490" width="9.125" style="19" customWidth="1"/>
+    <col min="12491" max="12491" width="5.5" style="19" customWidth="1"/>
+    <col min="12492" max="12495" width="6.25" style="19" customWidth="1"/>
+    <col min="12496" max="12496" width="5.5" style="19" customWidth="1"/>
+    <col min="12497" max="12497" width="9.25" style="19" customWidth="1"/>
+    <col min="12498" max="12498" width="5.5" style="19" customWidth="1"/>
+    <col min="12499" max="12502" width="6.25" style="19" customWidth="1"/>
+    <col min="12503" max="12503" width="5.5" style="19" customWidth="1"/>
     <col min="12504" max="12504" width="9" style="19"/>
-    <col min="12505" max="12505" width="13.86328125" style="19" customWidth="1"/>
+    <col min="12505" max="12505" width="13.875" style="19" customWidth="1"/>
     <col min="12506" max="12745" width="9" style="19"/>
-    <col min="12746" max="12746" width="9.1328125" style="19" customWidth="1"/>
-    <col min="12747" max="12747" width="5.46484375" style="19" customWidth="1"/>
-    <col min="12748" max="12751" width="6.265625" style="19" customWidth="1"/>
-    <col min="12752" max="12752" width="5.46484375" style="19" customWidth="1"/>
-    <col min="12753" max="12753" width="9.265625" style="19" customWidth="1"/>
-    <col min="12754" max="12754" width="5.46484375" style="19" customWidth="1"/>
-    <col min="12755" max="12758" width="6.265625" style="19" customWidth="1"/>
-    <col min="12759" max="12759" width="5.46484375" style="19" customWidth="1"/>
+    <col min="12746" max="12746" width="9.125" style="19" customWidth="1"/>
+    <col min="12747" max="12747" width="5.5" style="19" customWidth="1"/>
+    <col min="12748" max="12751" width="6.25" style="19" customWidth="1"/>
+    <col min="12752" max="12752" width="5.5" style="19" customWidth="1"/>
+    <col min="12753" max="12753" width="9.25" style="19" customWidth="1"/>
+    <col min="12754" max="12754" width="5.5" style="19" customWidth="1"/>
+    <col min="12755" max="12758" width="6.25" style="19" customWidth="1"/>
+    <col min="12759" max="12759" width="5.5" style="19" customWidth="1"/>
     <col min="12760" max="12760" width="9" style="19"/>
-    <col min="12761" max="12761" width="13.86328125" style="19" customWidth="1"/>
+    <col min="12761" max="12761" width="13.875" style="19" customWidth="1"/>
     <col min="12762" max="13001" width="9" style="19"/>
-    <col min="13002" max="13002" width="9.1328125" style="19" customWidth="1"/>
-    <col min="13003" max="13003" width="5.46484375" style="19" customWidth="1"/>
-    <col min="13004" max="13007" width="6.265625" style="19" customWidth="1"/>
-    <col min="13008" max="13008" width="5.46484375" style="19" customWidth="1"/>
-    <col min="13009" max="13009" width="9.265625" style="19" customWidth="1"/>
-    <col min="13010" max="13010" width="5.46484375" style="19" customWidth="1"/>
-    <col min="13011" max="13014" width="6.265625" style="19" customWidth="1"/>
-    <col min="13015" max="13015" width="5.46484375" style="19" customWidth="1"/>
+    <col min="13002" max="13002" width="9.125" style="19" customWidth="1"/>
+    <col min="13003" max="13003" width="5.5" style="19" customWidth="1"/>
+    <col min="13004" max="13007" width="6.25" style="19" customWidth="1"/>
+    <col min="13008" max="13008" width="5.5" style="19" customWidth="1"/>
+    <col min="13009" max="13009" width="9.25" style="19" customWidth="1"/>
+    <col min="13010" max="13010" width="5.5" style="19" customWidth="1"/>
+    <col min="13011" max="13014" width="6.25" style="19" customWidth="1"/>
+    <col min="13015" max="13015" width="5.5" style="19" customWidth="1"/>
     <col min="13016" max="13016" width="9" style="19"/>
-    <col min="13017" max="13017" width="13.86328125" style="19" customWidth="1"/>
+    <col min="13017" max="13017" width="13.875" style="19" customWidth="1"/>
     <col min="13018" max="13257" width="9" style="19"/>
-    <col min="13258" max="13258" width="9.1328125" style="19" customWidth="1"/>
-    <col min="13259" max="13259" width="5.46484375" style="19" customWidth="1"/>
-    <col min="13260" max="13263" width="6.265625" style="19" customWidth="1"/>
-    <col min="13264" max="13264" width="5.46484375" style="19" customWidth="1"/>
-    <col min="13265" max="13265" width="9.265625" style="19" customWidth="1"/>
-    <col min="13266" max="13266" width="5.46484375" style="19" customWidth="1"/>
-    <col min="13267" max="13270" width="6.265625" style="19" customWidth="1"/>
-    <col min="13271" max="13271" width="5.46484375" style="19" customWidth="1"/>
+    <col min="13258" max="13258" width="9.125" style="19" customWidth="1"/>
+    <col min="13259" max="13259" width="5.5" style="19" customWidth="1"/>
+    <col min="13260" max="13263" width="6.25" style="19" customWidth="1"/>
+    <col min="13264" max="13264" width="5.5" style="19" customWidth="1"/>
+    <col min="13265" max="13265" width="9.25" style="19" customWidth="1"/>
+    <col min="13266" max="13266" width="5.5" style="19" customWidth="1"/>
+    <col min="13267" max="13270" width="6.25" style="19" customWidth="1"/>
+    <col min="13271" max="13271" width="5.5" style="19" customWidth="1"/>
     <col min="13272" max="13272" width="9" style="19"/>
-    <col min="13273" max="13273" width="13.86328125" style="19" customWidth="1"/>
+    <col min="13273" max="13273" width="13.875" style="19" customWidth="1"/>
     <col min="13274" max="13513" width="9" style="19"/>
-    <col min="13514" max="13514" width="9.1328125" style="19" customWidth="1"/>
-    <col min="13515" max="13515" width="5.46484375" style="19" customWidth="1"/>
-    <col min="13516" max="13519" width="6.265625" style="19" customWidth="1"/>
-    <col min="13520" max="13520" width="5.46484375" style="19" customWidth="1"/>
-    <col min="13521" max="13521" width="9.265625" style="19" customWidth="1"/>
-    <col min="13522" max="13522" width="5.46484375" style="19" customWidth="1"/>
-    <col min="13523" max="13526" width="6.265625" style="19" customWidth="1"/>
-    <col min="13527" max="13527" width="5.46484375" style="19" customWidth="1"/>
+    <col min="13514" max="13514" width="9.125" style="19" customWidth="1"/>
+    <col min="13515" max="13515" width="5.5" style="19" customWidth="1"/>
+    <col min="13516" max="13519" width="6.25" style="19" customWidth="1"/>
+    <col min="13520" max="13520" width="5.5" style="19" customWidth="1"/>
+    <col min="13521" max="13521" width="9.25" style="19" customWidth="1"/>
+    <col min="13522" max="13522" width="5.5" style="19" customWidth="1"/>
+    <col min="13523" max="13526" width="6.25" style="19" customWidth="1"/>
+    <col min="13527" max="13527" width="5.5" style="19" customWidth="1"/>
     <col min="13528" max="13528" width="9" style="19"/>
-    <col min="13529" max="13529" width="13.86328125" style="19" customWidth="1"/>
+    <col min="13529" max="13529" width="13.875" style="19" customWidth="1"/>
     <col min="13530" max="13769" width="9" style="19"/>
-    <col min="13770" max="13770" width="9.1328125" style="19" customWidth="1"/>
-    <col min="13771" max="13771" width="5.46484375" style="19" customWidth="1"/>
-    <col min="13772" max="13775" width="6.265625" style="19" customWidth="1"/>
-    <col min="13776" max="13776" width="5.46484375" style="19" customWidth="1"/>
-    <col min="13777" max="13777" width="9.265625" style="19" customWidth="1"/>
-    <col min="13778" max="13778" width="5.46484375" style="19" customWidth="1"/>
-    <col min="13779" max="13782" width="6.265625" style="19" customWidth="1"/>
-    <col min="13783" max="13783" width="5.46484375" style="19" customWidth="1"/>
+    <col min="13770" max="13770" width="9.125" style="19" customWidth="1"/>
+    <col min="13771" max="13771" width="5.5" style="19" customWidth="1"/>
+    <col min="13772" max="13775" width="6.25" style="19" customWidth="1"/>
+    <col min="13776" max="13776" width="5.5" style="19" customWidth="1"/>
+    <col min="13777" max="13777" width="9.25" style="19" customWidth="1"/>
+    <col min="13778" max="13778" width="5.5" style="19" customWidth="1"/>
+    <col min="13779" max="13782" width="6.25" style="19" customWidth="1"/>
+    <col min="13783" max="13783" width="5.5" style="19" customWidth="1"/>
     <col min="13784" max="13784" width="9" style="19"/>
-    <col min="13785" max="13785" width="13.86328125" style="19" customWidth="1"/>
+    <col min="13785" max="13785" width="13.875" style="19" customWidth="1"/>
     <col min="13786" max="14025" width="9" style="19"/>
-    <col min="14026" max="14026" width="9.1328125" style="19" customWidth="1"/>
-    <col min="14027" max="14027" width="5.46484375" style="19" customWidth="1"/>
-    <col min="14028" max="14031" width="6.265625" style="19" customWidth="1"/>
-    <col min="14032" max="14032" width="5.46484375" style="19" customWidth="1"/>
-    <col min="14033" max="14033" width="9.265625" style="19" customWidth="1"/>
-    <col min="14034" max="14034" width="5.46484375" style="19" customWidth="1"/>
-    <col min="14035" max="14038" width="6.265625" style="19" customWidth="1"/>
-    <col min="14039" max="14039" width="5.46484375" style="19" customWidth="1"/>
+    <col min="14026" max="14026" width="9.125" style="19" customWidth="1"/>
+    <col min="14027" max="14027" width="5.5" style="19" customWidth="1"/>
+    <col min="14028" max="14031" width="6.25" style="19" customWidth="1"/>
+    <col min="14032" max="14032" width="5.5" style="19" customWidth="1"/>
+    <col min="14033" max="14033" width="9.25" style="19" customWidth="1"/>
+    <col min="14034" max="14034" width="5.5" style="19" customWidth="1"/>
+    <col min="14035" max="14038" width="6.25" style="19" customWidth="1"/>
+    <col min="14039" max="14039" width="5.5" style="19" customWidth="1"/>
     <col min="14040" max="14040" width="9" style="19"/>
-    <col min="14041" max="14041" width="13.86328125" style="19" customWidth="1"/>
+    <col min="14041" max="14041" width="13.875" style="19" customWidth="1"/>
     <col min="14042" max="14281" width="9" style="19"/>
-    <col min="14282" max="14282" width="9.1328125" style="19" customWidth="1"/>
-    <col min="14283" max="14283" width="5.46484375" style="19" customWidth="1"/>
-    <col min="14284" max="14287" width="6.265625" style="19" customWidth="1"/>
-    <col min="14288" max="14288" width="5.46484375" style="19" customWidth="1"/>
-    <col min="14289" max="14289" width="9.265625" style="19" customWidth="1"/>
-    <col min="14290" max="14290" width="5.46484375" style="19" customWidth="1"/>
-    <col min="14291" max="14294" width="6.265625" style="19" customWidth="1"/>
-    <col min="14295" max="14295" width="5.46484375" style="19" customWidth="1"/>
+    <col min="14282" max="14282" width="9.125" style="19" customWidth="1"/>
+    <col min="14283" max="14283" width="5.5" style="19" customWidth="1"/>
+    <col min="14284" max="14287" width="6.25" style="19" customWidth="1"/>
+    <col min="14288" max="14288" width="5.5" style="19" customWidth="1"/>
+    <col min="14289" max="14289" width="9.25" style="19" customWidth="1"/>
+    <col min="14290" max="14290" width="5.5" style="19" customWidth="1"/>
+    <col min="14291" max="14294" width="6.25" style="19" customWidth="1"/>
+    <col min="14295" max="14295" width="5.5" style="19" customWidth="1"/>
     <col min="14296" max="14296" width="9" style="19"/>
-    <col min="14297" max="14297" width="13.86328125" style="19" customWidth="1"/>
+    <col min="14297" max="14297" width="13.875" style="19" customWidth="1"/>
     <col min="14298" max="14537" width="9" style="19"/>
-    <col min="14538" max="14538" width="9.1328125" style="19" customWidth="1"/>
-    <col min="14539" max="14539" width="5.46484375" style="19" customWidth="1"/>
-    <col min="14540" max="14543" width="6.265625" style="19" customWidth="1"/>
-    <col min="14544" max="14544" width="5.46484375" style="19" customWidth="1"/>
-    <col min="14545" max="14545" width="9.265625" style="19" customWidth="1"/>
-    <col min="14546" max="14546" width="5.46484375" style="19" customWidth="1"/>
-    <col min="14547" max="14550" width="6.265625" style="19" customWidth="1"/>
-    <col min="14551" max="14551" width="5.46484375" style="19" customWidth="1"/>
+    <col min="14538" max="14538" width="9.125" style="19" customWidth="1"/>
+    <col min="14539" max="14539" width="5.5" style="19" customWidth="1"/>
+    <col min="14540" max="14543" width="6.25" style="19" customWidth="1"/>
+    <col min="14544" max="14544" width="5.5" style="19" customWidth="1"/>
+    <col min="14545" max="14545" width="9.25" style="19" customWidth="1"/>
+    <col min="14546" max="14546" width="5.5" style="19" customWidth="1"/>
+    <col min="14547" max="14550" width="6.25" style="19" customWidth="1"/>
+    <col min="14551" max="14551" width="5.5" style="19" customWidth="1"/>
     <col min="14552" max="14552" width="9" style="19"/>
-    <col min="14553" max="14553" width="13.86328125" style="19" customWidth="1"/>
+    <col min="14553" max="14553" width="13.875" style="19" customWidth="1"/>
     <col min="14554" max="14793" width="9" style="19"/>
-    <col min="14794" max="14794" width="9.1328125" style="19" customWidth="1"/>
-    <col min="14795" max="14795" width="5.46484375" style="19" customWidth="1"/>
-    <col min="14796" max="14799" width="6.265625" style="19" customWidth="1"/>
-    <col min="14800" max="14800" width="5.46484375" style="19" customWidth="1"/>
-    <col min="14801" max="14801" width="9.265625" style="19" customWidth="1"/>
-    <col min="14802" max="14802" width="5.46484375" style="19" customWidth="1"/>
-    <col min="14803" max="14806" width="6.265625" style="19" customWidth="1"/>
-    <col min="14807" max="14807" width="5.46484375" style="19" customWidth="1"/>
+    <col min="14794" max="14794" width="9.125" style="19" customWidth="1"/>
+    <col min="14795" max="14795" width="5.5" style="19" customWidth="1"/>
+    <col min="14796" max="14799" width="6.25" style="19" customWidth="1"/>
+    <col min="14800" max="14800" width="5.5" style="19" customWidth="1"/>
+    <col min="14801" max="14801" width="9.25" style="19" customWidth="1"/>
+    <col min="14802" max="14802" width="5.5" style="19" customWidth="1"/>
+    <col min="14803" max="14806" width="6.25" style="19" customWidth="1"/>
+    <col min="14807" max="14807" width="5.5" style="19" customWidth="1"/>
     <col min="14808" max="14808" width="9" style="19"/>
-    <col min="14809" max="14809" width="13.86328125" style="19" customWidth="1"/>
+    <col min="14809" max="14809" width="13.875" style="19" customWidth="1"/>
     <col min="14810" max="15049" width="9" style="19"/>
-    <col min="15050" max="15050" width="9.1328125" style="19" customWidth="1"/>
-    <col min="15051" max="15051" width="5.46484375" style="19" customWidth="1"/>
-    <col min="15052" max="15055" width="6.265625" style="19" customWidth="1"/>
-    <col min="15056" max="15056" width="5.46484375" style="19" customWidth="1"/>
-    <col min="15057" max="15057" width="9.265625" style="19" customWidth="1"/>
-    <col min="15058" max="15058" width="5.46484375" style="19" customWidth="1"/>
-    <col min="15059" max="15062" width="6.265625" style="19" customWidth="1"/>
-    <col min="15063" max="15063" width="5.46484375" style="19" customWidth="1"/>
+    <col min="15050" max="15050" width="9.125" style="19" customWidth="1"/>
+    <col min="15051" max="15051" width="5.5" style="19" customWidth="1"/>
+    <col min="15052" max="15055" width="6.25" style="19" customWidth="1"/>
+    <col min="15056" max="15056" width="5.5" style="19" customWidth="1"/>
+    <col min="15057" max="15057" width="9.25" style="19" customWidth="1"/>
+    <col min="15058" max="15058" width="5.5" style="19" customWidth="1"/>
+    <col min="15059" max="15062" width="6.25" style="19" customWidth="1"/>
+    <col min="15063" max="15063" width="5.5" style="19" customWidth="1"/>
     <col min="15064" max="15064" width="9" style="19"/>
-    <col min="15065" max="15065" width="13.86328125" style="19" customWidth="1"/>
+    <col min="15065" max="15065" width="13.875" style="19" customWidth="1"/>
     <col min="15066" max="15305" width="9" style="19"/>
-    <col min="15306" max="15306" width="9.1328125" style="19" customWidth="1"/>
-    <col min="15307" max="15307" width="5.46484375" style="19" customWidth="1"/>
-    <col min="15308" max="15311" width="6.265625" style="19" customWidth="1"/>
-    <col min="15312" max="15312" width="5.46484375" style="19" customWidth="1"/>
-    <col min="15313" max="15313" width="9.265625" style="19" customWidth="1"/>
-    <col min="15314" max="15314" width="5.46484375" style="19" customWidth="1"/>
-    <col min="15315" max="15318" width="6.265625" style="19" customWidth="1"/>
-    <col min="15319" max="15319" width="5.46484375" style="19" customWidth="1"/>
+    <col min="15306" max="15306" width="9.125" style="19" customWidth="1"/>
+    <col min="15307" max="15307" width="5.5" style="19" customWidth="1"/>
+    <col min="15308" max="15311" width="6.25" style="19" customWidth="1"/>
+    <col min="15312" max="15312" width="5.5" style="19" customWidth="1"/>
+    <col min="15313" max="15313" width="9.25" style="19" customWidth="1"/>
+    <col min="15314" max="15314" width="5.5" style="19" customWidth="1"/>
+    <col min="15315" max="15318" width="6.25" style="19" customWidth="1"/>
+    <col min="15319" max="15319" width="5.5" style="19" customWidth="1"/>
     <col min="15320" max="15320" width="9" style="19"/>
-    <col min="15321" max="15321" width="13.86328125" style="19" customWidth="1"/>
+    <col min="15321" max="15321" width="13.875" style="19" customWidth="1"/>
     <col min="15322" max="15561" width="9" style="19"/>
-    <col min="15562" max="15562" width="9.1328125" style="19" customWidth="1"/>
-    <col min="15563" max="15563" width="5.46484375" style="19" customWidth="1"/>
-    <col min="15564" max="15567" width="6.265625" style="19" customWidth="1"/>
-    <col min="15568" max="15568" width="5.46484375" style="19" customWidth="1"/>
-    <col min="15569" max="15569" width="9.265625" style="19" customWidth="1"/>
-    <col min="15570" max="15570" width="5.46484375" style="19" customWidth="1"/>
-    <col min="15571" max="15574" width="6.265625" style="19" customWidth="1"/>
-    <col min="15575" max="15575" width="5.46484375" style="19" customWidth="1"/>
+    <col min="15562" max="15562" width="9.125" style="19" customWidth="1"/>
+    <col min="15563" max="15563" width="5.5" style="19" customWidth="1"/>
+    <col min="15564" max="15567" width="6.25" style="19" customWidth="1"/>
+    <col min="15568" max="15568" width="5.5" style="19" customWidth="1"/>
+    <col min="15569" max="15569" width="9.25" style="19" customWidth="1"/>
+    <col min="15570" max="15570" width="5.5" style="19" customWidth="1"/>
+    <col min="15571" max="15574" width="6.25" style="19" customWidth="1"/>
+    <col min="15575" max="15575" width="5.5" style="19" customWidth="1"/>
     <col min="15576" max="15576" width="9" style="19"/>
-    <col min="15577" max="15577" width="13.86328125" style="19" customWidth="1"/>
+    <col min="15577" max="15577" width="13.875" style="19" customWidth="1"/>
     <col min="15578" max="15817" width="9" style="19"/>
-    <col min="15818" max="15818" width="9.1328125" style="19" customWidth="1"/>
-    <col min="15819" max="15819" width="5.46484375" style="19" customWidth="1"/>
-    <col min="15820" max="15823" width="6.265625" style="19" customWidth="1"/>
-    <col min="15824" max="15824" width="5.46484375" style="19" customWidth="1"/>
-    <col min="15825" max="15825" width="9.265625" style="19" customWidth="1"/>
-    <col min="15826" max="15826" width="5.46484375" style="19" customWidth="1"/>
-    <col min="15827" max="15830" width="6.265625" style="19" customWidth="1"/>
-    <col min="15831" max="15831" width="5.46484375" style="19" customWidth="1"/>
+    <col min="15818" max="15818" width="9.125" style="19" customWidth="1"/>
+    <col min="15819" max="15819" width="5.5" style="19" customWidth="1"/>
+    <col min="15820" max="15823" width="6.25" style="19" customWidth="1"/>
+    <col min="15824" max="15824" width="5.5" style="19" customWidth="1"/>
+    <col min="15825" max="15825" width="9.25" style="19" customWidth="1"/>
+    <col min="15826" max="15826" width="5.5" style="19" customWidth="1"/>
+    <col min="15827" max="15830" width="6.25" style="19" customWidth="1"/>
+    <col min="15831" max="15831" width="5.5" style="19" customWidth="1"/>
     <col min="15832" max="15832" width="9" style="19"/>
-    <col min="15833" max="15833" width="13.86328125" style="19" customWidth="1"/>
+    <col min="15833" max="15833" width="13.875" style="19" customWidth="1"/>
     <col min="15834" max="16073" width="9" style="19"/>
-    <col min="16074" max="16074" width="9.1328125" style="19" customWidth="1"/>
-    <col min="16075" max="16075" width="5.46484375" style="19" customWidth="1"/>
-    <col min="16076" max="16079" width="6.265625" style="19" customWidth="1"/>
-    <col min="16080" max="16080" width="5.46484375" style="19" customWidth="1"/>
-    <col min="16081" max="16081" width="9.265625" style="19" customWidth="1"/>
-    <col min="16082" max="16082" width="5.46484375" style="19" customWidth="1"/>
-    <col min="16083" max="16086" width="6.265625" style="19" customWidth="1"/>
-    <col min="16087" max="16087" width="5.46484375" style="19" customWidth="1"/>
+    <col min="16074" max="16074" width="9.125" style="19" customWidth="1"/>
+    <col min="16075" max="16075" width="5.5" style="19" customWidth="1"/>
+    <col min="16076" max="16079" width="6.25" style="19" customWidth="1"/>
+    <col min="16080" max="16080" width="5.5" style="19" customWidth="1"/>
+    <col min="16081" max="16081" width="9.25" style="19" customWidth="1"/>
+    <col min="16082" max="16082" width="5.5" style="19" customWidth="1"/>
+    <col min="16083" max="16086" width="6.25" style="19" customWidth="1"/>
+    <col min="16087" max="16087" width="5.5" style="19" customWidth="1"/>
     <col min="16088" max="16088" width="9" style="19"/>
-    <col min="16089" max="16089" width="13.86328125" style="19" customWidth="1"/>
+    <col min="16089" max="16089" width="13.875" style="19" customWidth="1"/>
     <col min="16090" max="16334" width="9" style="19"/>
     <col min="16335" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="63" t="s">
         <v>44</v>
       </c>
@@ -4284,7 +4247,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="42"/>
     </row>
-    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
         <v>43</v>
       </c>
@@ -4307,7 +4270,7 @@
       <c r="N2" s="37"/>
       <c r="P2" s="41"/>
     </row>
-    <row r="3" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
         <v>40</v>
       </c>
@@ -4329,7 +4292,7 @@
       </c>
       <c r="N3" s="37"/>
     </row>
-    <row r="4" spans="1:17" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="33" t="s">
         <v>37</v>
       </c>
@@ -4351,7 +4314,7 @@
       </c>
       <c r="N4" s="37"/>
     </row>
-    <row r="5" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
@@ -4377,7 +4340,7 @@
       </c>
       <c r="N5" s="37"/>
     </row>
-    <row r="6" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
         <v>30</v>
       </c>
@@ -4403,7 +4366,7 @@
       </c>
       <c r="N6" s="37"/>
     </row>
-    <row r="7" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>25</v>
       </c>
@@ -4430,7 +4393,7 @@
       </c>
       <c r="N7" s="34"/>
     </row>
-    <row r="8" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="59" t="s">
         <v>1</v>
       </c>
@@ -4462,7 +4425,7 @@
       <c r="M8" s="32"/>
       <c r="N8" s="29"/>
     </row>
-    <row r="9" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="56"/>
       <c r="B9" s="56"/>
       <c r="C9" s="28"/>
@@ -4480,7 +4443,7 @@
       <c r="P9" s="25"/>
       <c r="Q9" s="25"/>
     </row>
-    <row r="10" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="56"/>
       <c r="B10" s="56"/>
       <c r="C10" s="28"/>
@@ -4498,7 +4461,7 @@
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
     </row>
-    <row r="11" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="56"/>
       <c r="B11" s="56"/>
       <c r="C11" s="28"/>
@@ -4515,7 +4478,7 @@
       <c r="P11" s="25"/>
       <c r="Q11" s="25"/>
     </row>
-    <row r="12" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="56"/>
       <c r="B12" s="56"/>
       <c r="C12" s="28"/>
@@ -4532,7 +4495,7 @@
       <c r="P12" s="25"/>
       <c r="Q12" s="25"/>
     </row>
-    <row r="13" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="56"/>
       <c r="B13" s="56"/>
       <c r="C13" s="28"/>
@@ -4549,7 +4512,7 @@
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
     </row>
-    <row r="14" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="56"/>
       <c r="B14" s="56"/>
       <c r="C14" s="28"/>
@@ -4566,7 +4529,7 @@
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
     </row>
-    <row r="15" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
       <c r="B15" s="56"/>
       <c r="C15" s="28"/>
@@ -4583,7 +4546,7 @@
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
     </row>
-    <row r="16" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="56"/>
       <c r="B16" s="56"/>
       <c r="C16" s="28"/>
@@ -4600,7 +4563,7 @@
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
     </row>
-    <row r="17" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="56"/>
       <c r="B17" s="56"/>
       <c r="C17" s="28"/>
@@ -4617,7 +4580,7 @@
       <c r="P17" s="25"/>
       <c r="Q17" s="25"/>
     </row>
-    <row r="18" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="56"/>
       <c r="B18" s="56"/>
       <c r="C18" s="28"/>
@@ -4634,7 +4597,7 @@
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
     </row>
-    <row r="19" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="56"/>
       <c r="B19" s="56"/>
       <c r="C19" s="28"/>
@@ -4651,7 +4614,7 @@
       <c r="P19" s="25"/>
       <c r="Q19" s="25"/>
     </row>
-    <row r="20" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="56"/>
       <c r="B20" s="56"/>
       <c r="C20" s="28"/>
@@ -4668,7 +4631,7 @@
       <c r="P20" s="25"/>
       <c r="Q20" s="25"/>
     </row>
-    <row r="21" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="56"/>
       <c r="B21" s="56"/>
       <c r="C21" s="28"/>
@@ -4684,7 +4647,7 @@
       <c r="P21" s="25"/>
       <c r="Q21" s="25"/>
     </row>
-    <row r="22" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="56"/>
       <c r="B22" s="56"/>
       <c r="C22" s="28"/>
@@ -4700,7 +4663,7 @@
       <c r="P22" s="25"/>
       <c r="Q22" s="25"/>
     </row>
-    <row r="23" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="56"/>
       <c r="B23" s="56"/>
       <c r="C23" s="28"/>
@@ -4716,7 +4679,7 @@
       <c r="P23" s="25"/>
       <c r="Q23" s="25"/>
     </row>
-    <row r="24" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="56"/>
       <c r="B24" s="56"/>
       <c r="C24" s="28"/>
@@ -4732,7 +4695,7 @@
       <c r="P24" s="25"/>
       <c r="Q24" s="25"/>
     </row>
-    <row r="25" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="56"/>
       <c r="B25" s="56"/>
       <c r="C25" s="28"/>
@@ -4748,7 +4711,7 @@
       <c r="P25" s="25"/>
       <c r="Q25" s="25"/>
     </row>
-    <row r="26" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="56"/>
       <c r="B26" s="56"/>
       <c r="C26" s="28"/>
@@ -4764,7 +4727,7 @@
       <c r="P26" s="25"/>
       <c r="Q26" s="25"/>
     </row>
-    <row r="27" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="56"/>
       <c r="B27" s="56"/>
       <c r="C27" s="28"/>
@@ -4780,7 +4743,7 @@
       <c r="P27" s="25"/>
       <c r="Q27" s="25"/>
     </row>
-    <row r="28" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="56"/>
       <c r="B28" s="56"/>
       <c r="C28" s="28"/>
@@ -4796,7 +4759,7 @@
       <c r="P28" s="25"/>
       <c r="Q28" s="25"/>
     </row>
-    <row r="29" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="56"/>
       <c r="B29" s="56"/>
       <c r="C29" s="28"/>
@@ -4812,7 +4775,7 @@
       <c r="P29" s="25"/>
       <c r="Q29" s="25"/>
     </row>
-    <row r="30" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="56"/>
       <c r="B30" s="56"/>
       <c r="C30" s="28"/>
@@ -4828,7 +4791,7 @@
       <c r="P30" s="25"/>
       <c r="Q30" s="25"/>
     </row>
-    <row r="31" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="56"/>
       <c r="B31" s="56"/>
       <c r="C31" s="28"/>
@@ -4844,7 +4807,7 @@
       <c r="P31" s="25"/>
       <c r="Q31" s="25"/>
     </row>
-    <row r="32" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="56"/>
       <c r="B32" s="56"/>
       <c r="C32" s="28"/>
@@ -4860,7 +4823,7 @@
       <c r="P32" s="25"/>
       <c r="Q32" s="25"/>
     </row>
-    <row r="33" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="56"/>
       <c r="B33" s="56"/>
       <c r="C33" s="28"/>
@@ -4876,7 +4839,7 @@
       <c r="P33" s="25"/>
       <c r="Q33" s="25"/>
     </row>
-    <row r="34" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="55" t="s">
         <v>19</v>
       </c>
@@ -5017,7 +4980,7 @@
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -5030,15 +4993,15 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" customWidth="1"/>
-    <col min="2" max="5" width="6.59765625" customWidth="1"/>
-    <col min="6" max="7" width="12.59765625" customWidth="1"/>
-    <col min="8" max="9" width="8.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="9" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>11</v>
       </c>
